--- a/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_极光组.xlsx
+++ b/VersionRecords/Version 5.2.10 20170209/版本Bug和特性计划及评审表v5.2.10_极光组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>No</t>
   </si>
@@ -118,6 +118,15 @@
     <t>极光组</t>
   </si>
   <si>
+    <t>纪维玉、王云飞</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
     <t>DV-1139</t>
   </si>
   <si>
@@ -136,6 +145,9 @@
     <t>历史池</t>
   </si>
   <si>
+    <t>王云飞</t>
+  </si>
+  <si>
     <t>DV-1930</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
   </si>
   <si>
     <t>休假管理</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
   </si>
   <si>
     <t>DV-1933</t>
@@ -401,11 +416,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -506,20 +521,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,10 +555,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,10 +624,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,56 +646,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,13 +669,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,13 +736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +754,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,13 +796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,7 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,31 +832,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,25 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,19 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,25 +904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,6 +1114,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1112,6 +1151,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,45 +1182,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1183,178 +1192,178 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1490,9 +1499,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1583,9 +1589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1616,17 +1619,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1754,7 +1751,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2078,117 +2075,117 @@
   <sheetPr/>
   <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="37.875" style="54" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="30.25" style="53" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="54" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="54" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="53" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="53" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="53" customWidth="1"/>
-    <col min="15" max="15" width="10" style="54" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="54" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="54" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="55" customWidth="1"/>
-    <col min="19" max="19" width="12" style="56" customWidth="1"/>
-    <col min="20" max="20" width="17" style="56" customWidth="1"/>
-    <col min="21" max="21" width="14.125" style="56" customWidth="1"/>
-    <col min="22" max="22" width="41.875" style="54" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="37.875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="52" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="52" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="52" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="53" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="53" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="52" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="52" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="52" customWidth="1"/>
+    <col min="15" max="15" width="10" style="53" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="53" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="53" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="54" customWidth="1"/>
+    <col min="19" max="19" width="12" style="55" customWidth="1"/>
+    <col min="20" max="20" width="17" style="55" customWidth="1"/>
+    <col min="21" max="21" width="14.125" style="55" customWidth="1"/>
+    <col min="22" max="22" width="41.875" style="53" customWidth="1"/>
     <col min="23" max="23" width="8.875" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="1" ht="27.75" spans="1:22">
-      <c r="A1" s="57" t="s">
+    <row r="1" s="49" customFormat="1" ht="27.75" spans="1:22">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="57" t="s">
+      <c r="U1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="51" customFormat="1" ht="27" customHeight="1" spans="1:23">
-      <c r="A2" s="58">
+    <row r="2" s="50" customFormat="1" ht="27" customHeight="1" spans="1:23">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -2198,41 +2195,49 @@
         <v>26</v>
       </c>
       <c r="G2" s="13"/>
-      <c r="H2" s="60"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="60"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79" t="s">
+      <c r="N2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="80"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-    </row>
-    <row r="3" s="52" customFormat="1" ht="27" customHeight="1" spans="1:23">
-      <c r="A3" s="61">
+      <c r="O2" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="78"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+    </row>
+    <row r="3" s="51" customFormat="1" ht="27" customHeight="1" spans="1:23">
+      <c r="A3" s="60">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>30</v>
+      <c r="D3" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>25</v>
@@ -2241,41 +2246,49 @@
         <v>26</v>
       </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="60"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="60"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79" t="s">
+      <c r="N3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q3" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="83"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="86"/>
+      <c r="R3" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="81"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="84"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:22">
-      <c r="A4" s="61">
+      <c r="A4" s="60">
         <v>3</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>32</v>
+      <c r="D4" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>25</v>
@@ -2284,40 +2297,48 @@
         <v>26</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="88"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="70"/>
+      <c r="N4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="85"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="69"/>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:22">
-      <c r="A5" s="58">
+      <c r="A5" s="57">
         <v>4</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>34</v>
+      <c r="D5" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>25</v>
@@ -2326,40 +2347,48 @@
         <v>26</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="88"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="70"/>
-    </row>
-    <row r="6" s="51" customFormat="1" ht="27" customHeight="1" spans="1:23">
-      <c r="A6" s="61">
+      <c r="N5" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q5" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="85"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="69"/>
+    </row>
+    <row r="6" s="50" customFormat="1" ht="27" customHeight="1" spans="1:23">
+      <c r="A6" s="60">
         <v>5</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>36</v>
+      <c r="D6" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>25</v>
@@ -2368,41 +2397,49 @@
         <v>26</v>
       </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="62"/>
+      <c r="H6" s="61"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="62"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="72" t="s">
+      <c r="L6" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="88"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="82"/>
-    </row>
-    <row r="7" s="51" customFormat="1" ht="27" customHeight="1" spans="1:23">
-      <c r="A7" s="61">
+      <c r="N6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="85"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="80"/>
+    </row>
+    <row r="7" s="50" customFormat="1" ht="27" customHeight="1" spans="1:23">
+      <c r="A7" s="60">
         <v>6</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>38</v>
+      <c r="D7" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>25</v>
@@ -2411,41 +2448,49 @@
         <v>26</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="62"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="62"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="88"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="82"/>
+      <c r="N7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q7" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="85"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="80"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:22">
-      <c r="A8" s="58">
+      <c r="A8" s="57">
         <v>7</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>40</v>
+      <c r="D8" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>25</v>
@@ -2453,41 +2498,49 @@
       <c r="F8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="72" t="s">
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="88"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="70"/>
+      <c r="N8" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q8" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="85"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="69"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:22">
-      <c r="A9" s="61">
+      <c r="A9" s="60">
         <v>8</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>42</v>
+      <c r="D9" s="58" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>25</v>
@@ -2495,41 +2548,49 @@
       <c r="F9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="72" t="s">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="74"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="88"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="70"/>
-    </row>
-    <row r="10" s="51" customFormat="1" ht="27" customHeight="1" spans="1:23">
-      <c r="A10" s="58">
+      <c r="N9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q9" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="85"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="69"/>
+    </row>
+    <row r="10" s="50" customFormat="1" ht="27" customHeight="1" spans="1:23">
+      <c r="A10" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>44</v>
+      <c r="D10" s="58" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>25</v>
@@ -2538,41 +2599,49 @@
         <v>26</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="62"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="62"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="72" t="s">
+      <c r="L10" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="91"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="82"/>
-    </row>
-    <row r="11" s="51" customFormat="1" ht="27" customHeight="1" spans="1:23">
-      <c r="A11" s="61">
+      <c r="N10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q10" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="87"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="80"/>
+    </row>
+    <row r="11" s="50" customFormat="1" ht="27" customHeight="1" spans="1:23">
+      <c r="A11" s="60">
         <v>10</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>46</v>
+      <c r="D11" s="58" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>25</v>
@@ -2581,41 +2650,49 @@
         <v>26</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="62"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="62"/>
+      <c r="J11" s="61"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="S11" s="88"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="82"/>
-    </row>
-    <row r="12" s="51" customFormat="1" ht="27" customHeight="1" spans="1:23">
-      <c r="A12" s="58">
+      <c r="N11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q11" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="85"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="80"/>
+    </row>
+    <row r="12" s="50" customFormat="1" ht="27" customHeight="1" spans="1:23">
+      <c r="A12" s="57">
         <v>11</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="59" t="s">
-        <v>48</v>
+      <c r="D12" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>25</v>
@@ -2624,41 +2701,49 @@
         <v>26</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="62"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="62"/>
+      <c r="J12" s="61"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="72" t="s">
+      <c r="L12" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="88"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="82"/>
-    </row>
-    <row r="13" s="51" customFormat="1" ht="27" customHeight="1" spans="1:23">
-      <c r="A13" s="61">
+      <c r="N12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q12" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="85"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="80"/>
+    </row>
+    <row r="13" s="50" customFormat="1" ht="27" customHeight="1" spans="1:23">
+      <c r="A13" s="60">
         <v>12</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>50</v>
+      <c r="D13" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>25</v>
@@ -2667,3539 +2752,3573 @@
         <v>26</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="62"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="62"/>
+      <c r="J13" s="61"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="72" t="s">
+      <c r="L13" s="71" t="s">
         <v>27</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="88"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="82"/>
-    </row>
-    <row r="14" s="51" customFormat="1" ht="27" customHeight="1" spans="1:23">
-      <c r="A14" s="58">
+      <c r="N13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q13" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="85"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="80"/>
+    </row>
+    <row r="14" s="50" customFormat="1" ht="27" customHeight="1" spans="1:23">
+      <c r="A14" s="57">
         <v>13</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>52</v>
+      <c r="D14" s="58" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="62"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="62"/>
+      <c r="J14" s="61"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="72" t="s">
-        <v>54</v>
+      <c r="L14" s="71" t="s">
+        <v>59</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14" s="88"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="82"/>
+      <c r="N14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q14" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="85"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="80"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:22">
-      <c r="A15" s="61"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="65"/>
+      <c r="A15" s="60">
+        <v>14</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="72"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="70"/>
+      <c r="N15" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="59">
+        <v>42774</v>
+      </c>
+      <c r="Q15" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="77"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="69"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:22">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="66"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="67"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="62"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="62"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="72"/>
+      <c r="L16" s="71"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="89"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="86"/>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:22">
-      <c r="A17" s="61"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="66"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="67"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="62"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="62"/>
+      <c r="J17" s="61"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="72"/>
+      <c r="L17" s="71"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="89"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="86"/>
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:22">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="66"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="67"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="62"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="72"/>
+      <c r="L18" s="71"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="95"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="91"/>
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:22">
-      <c r="A19" s="61"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="66"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="67"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="62"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="62"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="72"/>
+      <c r="L19" s="71"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="95"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="91"/>
     </row>
     <row r="20" ht="16.5" spans="1:22">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="66"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="67"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="62"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="62"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="95"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="91"/>
     </row>
     <row r="21" ht="16.5" spans="1:22">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="66"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="67"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="62"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="62"/>
+      <c r="J21" s="61"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="95"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="91"/>
     </row>
     <row r="22" ht="16.5" spans="1:22">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="66"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="67"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="62"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="62"/>
+      <c r="J22" s="61"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="72"/>
+      <c r="L22" s="71"/>
       <c r="M22" s="13"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="95"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="91"/>
     </row>
     <row r="23" ht="16.5" spans="1:22">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="66"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="67"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="62"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="62"/>
+      <c r="J23" s="61"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="72"/>
+      <c r="L23" s="71"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="72"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="71"/>
     </row>
     <row r="24" ht="16.5" spans="1:22">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="66"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="67"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="62"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="62"/>
+      <c r="J24" s="61"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="72"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="13"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="89"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="86"/>
     </row>
     <row r="25" ht="16.5" spans="1:22">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="66"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="67"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="62"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="62"/>
+      <c r="J25" s="61"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="72"/>
+      <c r="L25" s="71"/>
       <c r="M25" s="13"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="89"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="86"/>
     </row>
     <row r="26" ht="16.5" spans="1:22">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="66"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="67"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="62"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="62"/>
+      <c r="J26" s="61"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="72"/>
+      <c r="L26" s="71"/>
       <c r="M26" s="13"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="89"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="86"/>
     </row>
     <row r="27" ht="16.5" spans="1:22">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="66"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="67"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="62"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="72"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="71"/>
       <c r="M27" s="13"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="95"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="91"/>
     </row>
     <row r="28" ht="16.5" spans="1:22">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="62"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="62"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="72"/>
+      <c r="L28" s="71"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="81"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="79"/>
     </row>
     <row r="29" ht="16.5" spans="1:22">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="62"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="62"/>
+      <c r="J29" s="61"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="72"/>
+      <c r="L29" s="71"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="89"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="86"/>
     </row>
     <row r="30" ht="16.5" spans="1:22">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="62"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="62"/>
+      <c r="J30" s="61"/>
       <c r="K30" s="13"/>
-      <c r="L30" s="72"/>
+      <c r="L30" s="71"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="89"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="86"/>
     </row>
     <row r="31" ht="16.5" spans="1:22">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="62"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="62"/>
+      <c r="J31" s="61"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="72"/>
+      <c r="L31" s="71"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="89"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="86"/>
     </row>
     <row r="32" ht="16.5" spans="1:22">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="62"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="62"/>
+      <c r="J32" s="61"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="72"/>
+      <c r="L32" s="71"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="89"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="86"/>
     </row>
     <row r="33" ht="16.5" spans="1:22">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="62"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="62"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="72"/>
+      <c r="L33" s="71"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="89"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="86"/>
     </row>
     <row r="34" ht="16.5" spans="1:22">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="62"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="62"/>
+      <c r="J34" s="61"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="72"/>
+      <c r="L34" s="71"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="89"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="86"/>
     </row>
     <row r="35" ht="16.5" spans="1:22">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="62"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="62"/>
+      <c r="J35" s="61"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="72"/>
+      <c r="L35" s="71"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="89"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="86"/>
     </row>
     <row r="36" ht="16.5" spans="1:22">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="62"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="62"/>
+      <c r="J36" s="61"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="72"/>
+      <c r="L36" s="71"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="89"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="86"/>
     </row>
     <row r="37" ht="16.5" spans="1:22">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="62"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="62"/>
+      <c r="J37" s="61"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="72"/>
+      <c r="L37" s="71"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="89"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="86"/>
     </row>
     <row r="38" ht="16.5" spans="1:22">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="62"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="62"/>
+      <c r="J38" s="61"/>
       <c r="K38" s="13"/>
-      <c r="L38" s="72"/>
+      <c r="L38" s="71"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="89"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="86"/>
     </row>
     <row r="39" ht="16.5" spans="1:22">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="68"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
       <c r="N39" s="13"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="98"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="89"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="86"/>
     </row>
     <row r="40" ht="16.5" spans="1:22">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="68"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="67"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
       <c r="N40" s="13"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="98"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="89"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="86"/>
     </row>
     <row r="41" ht="16.5" spans="1:22">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="65"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
       <c r="N41" s="13"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="70"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="69"/>
     </row>
     <row r="42" ht="16.5" spans="1:22">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="65"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
       <c r="N42" s="13"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="70"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="69"/>
     </row>
     <row r="43" ht="16.5" spans="1:22">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="65"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
       <c r="N43" s="13"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="70"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="69"/>
     </row>
     <row r="44" ht="16.5" spans="1:22">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="65"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
       <c r="N44" s="13"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="69"/>
-      <c r="U44" s="69"/>
-      <c r="V44" s="70"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="69"/>
     </row>
     <row r="45" ht="16.5" spans="1:22">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="65"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="64"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
       <c r="N45" s="13"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="69"/>
-      <c r="V45" s="70"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="69"/>
     </row>
     <row r="46" ht="16.5" spans="1:22">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="65"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
       <c r="N46" s="13"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="70"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="69"/>
     </row>
     <row r="47" ht="16.5" spans="1:22">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="65"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
       <c r="N47" s="13"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="69"/>
-      <c r="V47" s="70"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="69"/>
     </row>
     <row r="48" ht="16.5" spans="1:22">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="69"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="69"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="69"/>
-      <c r="T48" s="69"/>
-      <c r="U48" s="69"/>
-      <c r="V48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="69"/>
     </row>
     <row r="49" ht="16.5" spans="1:22">
-      <c r="A49" s="69"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="69"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="69"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="70"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="69"/>
-      <c r="U49" s="69"/>
-      <c r="V49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="69"/>
     </row>
     <row r="50" ht="16.5" spans="1:22">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="69"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="69"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="70"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="69"/>
-      <c r="U50" s="69"/>
-      <c r="V50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="69"/>
     </row>
     <row r="51" ht="16.5" spans="1:22">
-      <c r="A51" s="69"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="69"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="70"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="68"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="69"/>
     </row>
     <row r="52" ht="16.5" spans="1:22">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="69"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="70"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="69"/>
-      <c r="U52" s="69"/>
-      <c r="V52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="69"/>
     </row>
     <row r="53" ht="16.5" spans="1:22">
-      <c r="A53" s="69"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="69"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="69"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="69"/>
     </row>
     <row r="54" ht="16.5" spans="1:22">
-      <c r="A54" s="69"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="69"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="69"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="69"/>
-      <c r="U54" s="69"/>
-      <c r="V54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="69"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="69"/>
     </row>
     <row r="55" ht="16.5" spans="1:22">
-      <c r="A55" s="69"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="69"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="70"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="69"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="69"/>
+      <c r="R55" s="69"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="69"/>
     </row>
     <row r="56" ht="16.5" spans="1:22">
-      <c r="A56" s="69"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="69"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="68"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="70"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="69"/>
-      <c r="U56" s="69"/>
-      <c r="V56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="69"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="69"/>
     </row>
     <row r="57" ht="16.5" spans="1:22">
-      <c r="A57" s="69"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="69"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="70"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="69"/>
-      <c r="U57" s="69"/>
-      <c r="V57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="69"/>
     </row>
     <row r="58" ht="16.5" spans="1:22">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="69"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="68"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="69"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="69"/>
+      <c r="R58" s="69"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="69"/>
     </row>
     <row r="59" ht="16.5" spans="1:22">
-      <c r="A59" s="69"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="69"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="69"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="70"/>
-      <c r="R59" s="70"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="69"/>
-      <c r="U59" s="69"/>
-      <c r="V59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="69"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="69"/>
     </row>
     <row r="60" ht="16.5" spans="1:22">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="69"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="68"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="69"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="70"/>
-      <c r="S60" s="69"/>
-      <c r="T60" s="69"/>
-      <c r="U60" s="69"/>
-      <c r="V60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="69"/>
     </row>
     <row r="61" ht="16.5" spans="1:22">
-      <c r="A61" s="69"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="69"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="69"/>
-      <c r="O61" s="69"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="70"/>
-      <c r="R61" s="70"/>
-      <c r="S61" s="69"/>
-      <c r="T61" s="69"/>
-      <c r="U61" s="69"/>
-      <c r="V61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="69"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="69"/>
     </row>
     <row r="62" ht="16.5" spans="1:22">
-      <c r="A62" s="69"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="69"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="69"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="70"/>
-      <c r="R62" s="70"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="69"/>
-      <c r="U62" s="69"/>
-      <c r="V62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="69"/>
+      <c r="R62" s="69"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="69"/>
     </row>
     <row r="63" ht="16.5" spans="1:22">
-      <c r="A63" s="69"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="69"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="69"/>
-      <c r="O63" s="69"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="70"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="69"/>
-      <c r="U63" s="69"/>
-      <c r="V63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="69"/>
+      <c r="R63" s="69"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="69"/>
     </row>
     <row r="64" ht="16.5" spans="1:22">
-      <c r="A64" s="69"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="69"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="68"/>
       <c r="F64" s="13"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="69"/>
-      <c r="O64" s="69"/>
-      <c r="P64" s="71"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="70"/>
-      <c r="S64" s="69"/>
-      <c r="T64" s="69"/>
-      <c r="U64" s="69"/>
-      <c r="V64" s="70"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="69"/>
+      <c r="R64" s="69"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="69"/>
     </row>
     <row r="65" ht="16.5" spans="1:22">
-      <c r="A65" s="69"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="69"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="13"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="69"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="70"/>
-      <c r="R65" s="70"/>
-      <c r="S65" s="69"/>
-      <c r="T65" s="69"/>
-      <c r="U65" s="69"/>
-      <c r="V65" s="70"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="69"/>
+      <c r="R65" s="69"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="68"/>
+      <c r="U65" s="68"/>
+      <c r="V65" s="69"/>
     </row>
     <row r="66" ht="16.5" spans="1:22">
-      <c r="A66" s="69"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="69"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="69"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="75"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="69"/>
-      <c r="O66" s="69"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="70"/>
-      <c r="R66" s="70"/>
-      <c r="S66" s="69"/>
-      <c r="T66" s="69"/>
-      <c r="U66" s="69"/>
-      <c r="V66" s="70"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="68"/>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="69"/>
+      <c r="R66" s="69"/>
+      <c r="S66" s="68"/>
+      <c r="T66" s="68"/>
+      <c r="U66" s="68"/>
+      <c r="V66" s="69"/>
     </row>
     <row r="67" ht="16.5" spans="1:22">
-      <c r="A67" s="69"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="69"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="69"/>
-      <c r="N67" s="69"/>
-      <c r="O67" s="69"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="70"/>
-      <c r="R67" s="70"/>
-      <c r="S67" s="69"/>
-      <c r="T67" s="69"/>
-      <c r="U67" s="69"/>
-      <c r="V67" s="70"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="68"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="70"/>
+      <c r="Q67" s="69"/>
+      <c r="R67" s="69"/>
+      <c r="S67" s="68"/>
+      <c r="T67" s="68"/>
+      <c r="U67" s="68"/>
+      <c r="V67" s="69"/>
     </row>
     <row r="68" ht="16.5" spans="1:22">
-      <c r="A68" s="69"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="69"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="69"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="70"/>
-      <c r="R68" s="70"/>
-      <c r="S68" s="69"/>
-      <c r="T68" s="69"/>
-      <c r="U68" s="69"/>
-      <c r="V68" s="70"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="69"/>
+      <c r="R68" s="69"/>
+      <c r="S68" s="68"/>
+      <c r="T68" s="68"/>
+      <c r="U68" s="68"/>
+      <c r="V68" s="69"/>
     </row>
     <row r="69" ht="16.5" spans="1:22">
-      <c r="A69" s="69"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="69"/>
+      <c r="A69" s="68"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="68"/>
       <c r="F69" s="13"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="69"/>
-      <c r="P69" s="71"/>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="70"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="69"/>
-      <c r="U69" s="69"/>
-      <c r="V69" s="70"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="68"/>
+      <c r="M69" s="68"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="69"/>
+      <c r="R69" s="69"/>
+      <c r="S69" s="68"/>
+      <c r="T69" s="68"/>
+      <c r="U69" s="68"/>
+      <c r="V69" s="69"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="69"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="69"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="69"/>
-      <c r="N70" s="69"/>
-      <c r="O70" s="69"/>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="70"/>
-      <c r="R70" s="70"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="69"/>
-      <c r="U70" s="69"/>
-      <c r="V70" s="70"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="70"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="68"/>
+      <c r="M70" s="68"/>
+      <c r="N70" s="68"/>
+      <c r="O70" s="68"/>
+      <c r="P70" s="70"/>
+      <c r="Q70" s="69"/>
+      <c r="R70" s="69"/>
+      <c r="S70" s="68"/>
+      <c r="T70" s="68"/>
+      <c r="U70" s="68"/>
+      <c r="V70" s="69"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="69"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="69"/>
-      <c r="M71" s="69"/>
-      <c r="N71" s="69"/>
-      <c r="O71" s="69"/>
-      <c r="P71" s="71"/>
-      <c r="Q71" s="70"/>
-      <c r="R71" s="70"/>
-      <c r="S71" s="69"/>
-      <c r="T71" s="69"/>
-      <c r="U71" s="69"/>
-      <c r="V71" s="70"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="69"/>
+      <c r="R71" s="69"/>
+      <c r="S71" s="68"/>
+      <c r="T71" s="68"/>
+      <c r="U71" s="68"/>
+      <c r="V71" s="69"/>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="69"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="69"/>
-      <c r="M72" s="69"/>
-      <c r="N72" s="69"/>
-      <c r="O72" s="69"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="70"/>
-      <c r="R72" s="70"/>
-      <c r="S72" s="69"/>
-      <c r="T72" s="69"/>
-      <c r="U72" s="69"/>
-      <c r="V72" s="70"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="68"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="68"/>
+      <c r="N72" s="68"/>
+      <c r="O72" s="68"/>
+      <c r="P72" s="70"/>
+      <c r="Q72" s="69"/>
+      <c r="R72" s="69"/>
+      <c r="S72" s="68"/>
+      <c r="T72" s="68"/>
+      <c r="U72" s="68"/>
+      <c r="V72" s="69"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="69"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="69"/>
-      <c r="N73" s="69"/>
-      <c r="O73" s="69"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="70"/>
-      <c r="R73" s="70"/>
-      <c r="S73" s="69"/>
-      <c r="T73" s="69"/>
-      <c r="U73" s="69"/>
-      <c r="V73" s="70"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="68"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
+      <c r="S73" s="68"/>
+      <c r="T73" s="68"/>
+      <c r="U73" s="68"/>
+      <c r="V73" s="69"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="69"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="75"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="69"/>
-      <c r="N74" s="69"/>
-      <c r="O74" s="69"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="70"/>
-      <c r="R74" s="70"/>
-      <c r="S74" s="69"/>
-      <c r="T74" s="69"/>
-      <c r="U74" s="69"/>
-      <c r="V74" s="70"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="68"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="70"/>
+      <c r="Q74" s="69"/>
+      <c r="R74" s="69"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="69"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="69"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="69"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="69"/>
-      <c r="M75" s="69"/>
-      <c r="N75" s="69"/>
-      <c r="O75" s="69"/>
-      <c r="P75" s="71"/>
-      <c r="Q75" s="70"/>
-      <c r="R75" s="70"/>
-      <c r="S75" s="69"/>
-      <c r="T75" s="69"/>
-      <c r="U75" s="69"/>
-      <c r="V75" s="70"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="68"/>
+      <c r="M75" s="68"/>
+      <c r="N75" s="68"/>
+      <c r="O75" s="68"/>
+      <c r="P75" s="70"/>
+      <c r="Q75" s="69"/>
+      <c r="R75" s="69"/>
+      <c r="S75" s="68"/>
+      <c r="T75" s="68"/>
+      <c r="U75" s="68"/>
+      <c r="V75" s="69"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="69"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="69"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="70"/>
-      <c r="R76" s="70"/>
-      <c r="S76" s="69"/>
-      <c r="T76" s="69"/>
-      <c r="U76" s="69"/>
-      <c r="V76" s="70"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="68"/>
+      <c r="N76" s="68"/>
+      <c r="O76" s="68"/>
+      <c r="P76" s="70"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="69"/>
+      <c r="S76" s="68"/>
+      <c r="T76" s="68"/>
+      <c r="U76" s="68"/>
+      <c r="V76" s="69"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="69"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="69"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="69"/>
-      <c r="N77" s="69"/>
-      <c r="O77" s="69"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="70"/>
-      <c r="R77" s="70"/>
-      <c r="S77" s="69"/>
-      <c r="T77" s="69"/>
-      <c r="U77" s="69"/>
-      <c r="V77" s="70"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="68"/>
+      <c r="O77" s="68"/>
+      <c r="P77" s="70"/>
+      <c r="Q77" s="69"/>
+      <c r="R77" s="69"/>
+      <c r="S77" s="68"/>
+      <c r="T77" s="68"/>
+      <c r="U77" s="68"/>
+      <c r="V77" s="69"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="69"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="69"/>
-      <c r="N78" s="69"/>
-      <c r="O78" s="69"/>
-      <c r="P78" s="71"/>
-      <c r="Q78" s="70"/>
-      <c r="R78" s="70"/>
-      <c r="S78" s="69"/>
-      <c r="T78" s="69"/>
-      <c r="U78" s="69"/>
-      <c r="V78" s="70"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="68"/>
+      <c r="M78" s="68"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="70"/>
+      <c r="Q78" s="69"/>
+      <c r="R78" s="69"/>
+      <c r="S78" s="68"/>
+      <c r="T78" s="68"/>
+      <c r="U78" s="68"/>
+      <c r="V78" s="69"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="69"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="69"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="69"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="69"/>
-      <c r="O79" s="69"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="70"/>
-      <c r="R79" s="70"/>
-      <c r="S79" s="69"/>
-      <c r="T79" s="69"/>
-      <c r="U79" s="69"/>
-      <c r="V79" s="70"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="70"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="68"/>
+      <c r="M79" s="68"/>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="70"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="69"/>
+      <c r="S79" s="68"/>
+      <c r="T79" s="68"/>
+      <c r="U79" s="68"/>
+      <c r="V79" s="69"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="69"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="69"/>
-      <c r="M80" s="69"/>
-      <c r="N80" s="69"/>
-      <c r="O80" s="69"/>
-      <c r="P80" s="71"/>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="70"/>
-      <c r="S80" s="69"/>
-      <c r="T80" s="69"/>
-      <c r="U80" s="69"/>
-      <c r="V80" s="70"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="74"/>
+      <c r="L80" s="68"/>
+      <c r="M80" s="68"/>
+      <c r="N80" s="68"/>
+      <c r="O80" s="68"/>
+      <c r="P80" s="70"/>
+      <c r="Q80" s="69"/>
+      <c r="R80" s="69"/>
+      <c r="S80" s="68"/>
+      <c r="T80" s="68"/>
+      <c r="U80" s="68"/>
+      <c r="V80" s="69"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="69"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="69"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="75"/>
-      <c r="L81" s="69"/>
-      <c r="M81" s="69"/>
-      <c r="N81" s="69"/>
-      <c r="O81" s="69"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="70"/>
-      <c r="R81" s="70"/>
-      <c r="S81" s="69"/>
-      <c r="T81" s="69"/>
-      <c r="U81" s="69"/>
-      <c r="V81" s="70"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="70"/>
+      <c r="K81" s="74"/>
+      <c r="L81" s="68"/>
+      <c r="M81" s="68"/>
+      <c r="N81" s="68"/>
+      <c r="O81" s="68"/>
+      <c r="P81" s="70"/>
+      <c r="Q81" s="69"/>
+      <c r="R81" s="69"/>
+      <c r="S81" s="68"/>
+      <c r="T81" s="68"/>
+      <c r="U81" s="68"/>
+      <c r="V81" s="69"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="69"/>
-      <c r="M82" s="69"/>
-      <c r="N82" s="69"/>
-      <c r="O82" s="69"/>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="70"/>
-      <c r="R82" s="70"/>
-      <c r="S82" s="69"/>
-      <c r="T82" s="69"/>
-      <c r="U82" s="69"/>
-      <c r="V82" s="70"/>
+      <c r="A82" s="68"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="68"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="68"/>
+      <c r="M82" s="68"/>
+      <c r="N82" s="68"/>
+      <c r="O82" s="68"/>
+      <c r="P82" s="70"/>
+      <c r="Q82" s="69"/>
+      <c r="R82" s="69"/>
+      <c r="S82" s="68"/>
+      <c r="T82" s="68"/>
+      <c r="U82" s="68"/>
+      <c r="V82" s="69"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="69"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="69"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="69"/>
-      <c r="M83" s="69"/>
-      <c r="N83" s="69"/>
-      <c r="O83" s="69"/>
-      <c r="P83" s="71"/>
-      <c r="Q83" s="70"/>
-      <c r="R83" s="70"/>
-      <c r="S83" s="69"/>
-      <c r="T83" s="69"/>
-      <c r="U83" s="69"/>
-      <c r="V83" s="70"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="70"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="68"/>
+      <c r="M83" s="68"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="68"/>
+      <c r="P83" s="70"/>
+      <c r="Q83" s="69"/>
+      <c r="R83" s="69"/>
+      <c r="S83" s="68"/>
+      <c r="T83" s="68"/>
+      <c r="U83" s="68"/>
+      <c r="V83" s="69"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="69"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="69"/>
-      <c r="M84" s="69"/>
-      <c r="N84" s="69"/>
-      <c r="O84" s="69"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="70"/>
-      <c r="R84" s="70"/>
-      <c r="S84" s="69"/>
-      <c r="T84" s="69"/>
-      <c r="U84" s="69"/>
-      <c r="V84" s="70"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="70"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="70"/>
+      <c r="Q84" s="69"/>
+      <c r="R84" s="69"/>
+      <c r="S84" s="68"/>
+      <c r="T84" s="68"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="69"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="69"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="69"/>
-      <c r="M85" s="69"/>
-      <c r="N85" s="69"/>
-      <c r="O85" s="69"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="70"/>
-      <c r="R85" s="70"/>
-      <c r="S85" s="69"/>
-      <c r="T85" s="69"/>
-      <c r="U85" s="69"/>
-      <c r="V85" s="70"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="68"/>
+      <c r="N85" s="68"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="70"/>
+      <c r="Q85" s="69"/>
+      <c r="R85" s="69"/>
+      <c r="S85" s="68"/>
+      <c r="T85" s="68"/>
+      <c r="U85" s="68"/>
+      <c r="V85" s="69"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="69"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="69"/>
-      <c r="M86" s="69"/>
-      <c r="N86" s="69"/>
-      <c r="O86" s="69"/>
-      <c r="P86" s="71"/>
-      <c r="Q86" s="70"/>
-      <c r="R86" s="70"/>
-      <c r="S86" s="69"/>
-      <c r="T86" s="69"/>
-      <c r="U86" s="69"/>
-      <c r="V86" s="70"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="70"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="68"/>
+      <c r="M86" s="68"/>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="70"/>
+      <c r="Q86" s="69"/>
+      <c r="R86" s="69"/>
+      <c r="S86" s="68"/>
+      <c r="T86" s="68"/>
+      <c r="U86" s="68"/>
+      <c r="V86" s="69"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="69"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="69"/>
-      <c r="O87" s="69"/>
-      <c r="P87" s="71"/>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="70"/>
-      <c r="S87" s="69"/>
-      <c r="T87" s="69"/>
-      <c r="U87" s="69"/>
-      <c r="V87" s="70"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="74"/>
+      <c r="L87" s="68"/>
+      <c r="M87" s="68"/>
+      <c r="N87" s="68"/>
+      <c r="O87" s="68"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="69"/>
+      <c r="R87" s="69"/>
+      <c r="S87" s="68"/>
+      <c r="T87" s="68"/>
+      <c r="U87" s="68"/>
+      <c r="V87" s="69"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="69"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="69"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="75"/>
-      <c r="L88" s="69"/>
-      <c r="M88" s="69"/>
-      <c r="N88" s="69"/>
-      <c r="O88" s="69"/>
-      <c r="P88" s="71"/>
-      <c r="Q88" s="70"/>
-      <c r="R88" s="70"/>
-      <c r="S88" s="69"/>
-      <c r="T88" s="69"/>
-      <c r="U88" s="69"/>
-      <c r="V88" s="70"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="68"/>
+      <c r="M88" s="68"/>
+      <c r="N88" s="68"/>
+      <c r="O88" s="68"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="69"/>
+      <c r="R88" s="69"/>
+      <c r="S88" s="68"/>
+      <c r="T88" s="68"/>
+      <c r="U88" s="68"/>
+      <c r="V88" s="69"/>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="69"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="69"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="75"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="69"/>
-      <c r="N89" s="69"/>
-      <c r="O89" s="69"/>
-      <c r="P89" s="71"/>
-      <c r="Q89" s="70"/>
-      <c r="R89" s="70"/>
-      <c r="S89" s="69"/>
-      <c r="T89" s="69"/>
-      <c r="U89" s="69"/>
-      <c r="V89" s="70"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="68"/>
+      <c r="M89" s="68"/>
+      <c r="N89" s="68"/>
+      <c r="O89" s="68"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="69"/>
+      <c r="R89" s="69"/>
+      <c r="S89" s="68"/>
+      <c r="T89" s="68"/>
+      <c r="U89" s="68"/>
+      <c r="V89" s="69"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="69"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="75"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="69"/>
-      <c r="N90" s="69"/>
-      <c r="O90" s="69"/>
-      <c r="P90" s="71"/>
-      <c r="Q90" s="70"/>
-      <c r="R90" s="70"/>
-      <c r="S90" s="69"/>
-      <c r="T90" s="69"/>
-      <c r="U90" s="69"/>
-      <c r="V90" s="70"/>
+      <c r="A90" s="68"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="68"/>
+      <c r="M90" s="68"/>
+      <c r="N90" s="68"/>
+      <c r="O90" s="68"/>
+      <c r="P90" s="70"/>
+      <c r="Q90" s="69"/>
+      <c r="R90" s="69"/>
+      <c r="S90" s="68"/>
+      <c r="T90" s="68"/>
+      <c r="U90" s="68"/>
+      <c r="V90" s="69"/>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="69"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="69"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="75"/>
-      <c r="L91" s="69"/>
-      <c r="M91" s="69"/>
-      <c r="N91" s="69"/>
-      <c r="O91" s="69"/>
-      <c r="P91" s="71"/>
-      <c r="Q91" s="70"/>
-      <c r="R91" s="70"/>
-      <c r="S91" s="69"/>
-      <c r="T91" s="69"/>
-      <c r="U91" s="69"/>
-      <c r="V91" s="70"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="74"/>
+      <c r="L91" s="68"/>
+      <c r="M91" s="68"/>
+      <c r="N91" s="68"/>
+      <c r="O91" s="68"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="69"/>
+      <c r="R91" s="69"/>
+      <c r="S91" s="68"/>
+      <c r="T91" s="68"/>
+      <c r="U91" s="68"/>
+      <c r="V91" s="69"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="69"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="75"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="69"/>
-      <c r="O92" s="69"/>
-      <c r="P92" s="71"/>
-      <c r="Q92" s="70"/>
-      <c r="R92" s="70"/>
-      <c r="S92" s="69"/>
-      <c r="T92" s="69"/>
-      <c r="U92" s="69"/>
-      <c r="V92" s="70"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="68"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="74"/>
+      <c r="L92" s="68"/>
+      <c r="M92" s="68"/>
+      <c r="N92" s="68"/>
+      <c r="O92" s="68"/>
+      <c r="P92" s="70"/>
+      <c r="Q92" s="69"/>
+      <c r="R92" s="69"/>
+      <c r="S92" s="68"/>
+      <c r="T92" s="68"/>
+      <c r="U92" s="68"/>
+      <c r="V92" s="69"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="69"/>
-      <c r="B93" s="69"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="69"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="75"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="69"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="69"/>
-      <c r="P93" s="71"/>
-      <c r="Q93" s="70"/>
-      <c r="R93" s="70"/>
-      <c r="S93" s="69"/>
-      <c r="T93" s="69"/>
-      <c r="U93" s="69"/>
-      <c r="V93" s="70"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="70"/>
+      <c r="K93" s="74"/>
+      <c r="L93" s="68"/>
+      <c r="M93" s="68"/>
+      <c r="N93" s="68"/>
+      <c r="O93" s="68"/>
+      <c r="P93" s="70"/>
+      <c r="Q93" s="69"/>
+      <c r="R93" s="69"/>
+      <c r="S93" s="68"/>
+      <c r="T93" s="68"/>
+      <c r="U93" s="68"/>
+      <c r="V93" s="69"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="69"/>
-      <c r="J94" s="71"/>
-      <c r="K94" s="75"/>
-      <c r="L94" s="69"/>
-      <c r="M94" s="69"/>
-      <c r="N94" s="69"/>
-      <c r="O94" s="69"/>
-      <c r="P94" s="71"/>
-      <c r="Q94" s="70"/>
-      <c r="R94" s="70"/>
-      <c r="S94" s="69"/>
-      <c r="T94" s="69"/>
-      <c r="U94" s="69"/>
-      <c r="V94" s="70"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="68"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="70"/>
+      <c r="K94" s="74"/>
+      <c r="L94" s="68"/>
+      <c r="M94" s="68"/>
+      <c r="N94" s="68"/>
+      <c r="O94" s="68"/>
+      <c r="P94" s="70"/>
+      <c r="Q94" s="69"/>
+      <c r="R94" s="69"/>
+      <c r="S94" s="68"/>
+      <c r="T94" s="68"/>
+      <c r="U94" s="68"/>
+      <c r="V94" s="69"/>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="69"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="69"/>
-      <c r="J95" s="71"/>
-      <c r="K95" s="75"/>
-      <c r="L95" s="69"/>
-      <c r="M95" s="69"/>
-      <c r="N95" s="69"/>
-      <c r="O95" s="69"/>
-      <c r="P95" s="71"/>
-      <c r="Q95" s="70"/>
-      <c r="R95" s="70"/>
-      <c r="S95" s="69"/>
-      <c r="T95" s="69"/>
-      <c r="U95" s="69"/>
-      <c r="V95" s="70"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="70"/>
+      <c r="K95" s="74"/>
+      <c r="L95" s="68"/>
+      <c r="M95" s="68"/>
+      <c r="N95" s="68"/>
+      <c r="O95" s="68"/>
+      <c r="P95" s="70"/>
+      <c r="Q95" s="69"/>
+      <c r="R95" s="69"/>
+      <c r="S95" s="68"/>
+      <c r="T95" s="68"/>
+      <c r="U95" s="68"/>
+      <c r="V95" s="69"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="69"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="75"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="69"/>
-      <c r="N96" s="69"/>
-      <c r="O96" s="69"/>
-      <c r="P96" s="71"/>
-      <c r="Q96" s="70"/>
-      <c r="R96" s="70"/>
-      <c r="S96" s="69"/>
-      <c r="T96" s="69"/>
-      <c r="U96" s="69"/>
-      <c r="V96" s="70"/>
+      <c r="A96" s="68"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="70"/>
+      <c r="K96" s="74"/>
+      <c r="L96" s="68"/>
+      <c r="M96" s="68"/>
+      <c r="N96" s="68"/>
+      <c r="O96" s="68"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="69"/>
+      <c r="R96" s="69"/>
+      <c r="S96" s="68"/>
+      <c r="T96" s="68"/>
+      <c r="U96" s="68"/>
+      <c r="V96" s="69"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="69"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="69"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="75"/>
-      <c r="L97" s="69"/>
-      <c r="M97" s="69"/>
-      <c r="N97" s="69"/>
-      <c r="O97" s="69"/>
-      <c r="P97" s="71"/>
-      <c r="Q97" s="70"/>
-      <c r="R97" s="70"/>
-      <c r="S97" s="69"/>
-      <c r="T97" s="69"/>
-      <c r="U97" s="69"/>
-      <c r="V97" s="70"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="70"/>
+      <c r="K97" s="74"/>
+      <c r="L97" s="68"/>
+      <c r="M97" s="68"/>
+      <c r="N97" s="68"/>
+      <c r="O97" s="68"/>
+      <c r="P97" s="70"/>
+      <c r="Q97" s="69"/>
+      <c r="R97" s="69"/>
+      <c r="S97" s="68"/>
+      <c r="T97" s="68"/>
+      <c r="U97" s="68"/>
+      <c r="V97" s="69"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="69"/>
-      <c r="J98" s="71"/>
-      <c r="K98" s="75"/>
-      <c r="L98" s="69"/>
-      <c r="M98" s="69"/>
-      <c r="N98" s="69"/>
-      <c r="O98" s="69"/>
-      <c r="P98" s="71"/>
-      <c r="Q98" s="70"/>
-      <c r="R98" s="70"/>
-      <c r="S98" s="69"/>
-      <c r="T98" s="69"/>
-      <c r="U98" s="69"/>
-      <c r="V98" s="70"/>
+      <c r="A98" s="68"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="70"/>
+      <c r="K98" s="74"/>
+      <c r="L98" s="68"/>
+      <c r="M98" s="68"/>
+      <c r="N98" s="68"/>
+      <c r="O98" s="68"/>
+      <c r="P98" s="70"/>
+      <c r="Q98" s="69"/>
+      <c r="R98" s="69"/>
+      <c r="S98" s="68"/>
+      <c r="T98" s="68"/>
+      <c r="U98" s="68"/>
+      <c r="V98" s="69"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="69"/>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="75"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="69"/>
-      <c r="P99" s="71"/>
-      <c r="Q99" s="70"/>
-      <c r="R99" s="70"/>
-      <c r="S99" s="69"/>
-      <c r="T99" s="69"/>
-      <c r="U99" s="69"/>
-      <c r="V99" s="70"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="74"/>
+      <c r="L99" s="68"/>
+      <c r="M99" s="68"/>
+      <c r="N99" s="68"/>
+      <c r="O99" s="68"/>
+      <c r="P99" s="70"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="68"/>
+      <c r="T99" s="68"/>
+      <c r="U99" s="68"/>
+      <c r="V99" s="69"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="69"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="69"/>
-      <c r="J100" s="71"/>
-      <c r="K100" s="75"/>
-      <c r="L100" s="69"/>
-      <c r="M100" s="69"/>
-      <c r="N100" s="69"/>
-      <c r="O100" s="69"/>
-      <c r="P100" s="71"/>
-      <c r="Q100" s="70"/>
-      <c r="R100" s="70"/>
-      <c r="S100" s="69"/>
-      <c r="T100" s="69"/>
-      <c r="U100" s="69"/>
-      <c r="V100" s="70"/>
+      <c r="A100" s="68"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="68"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="74"/>
+      <c r="L100" s="68"/>
+      <c r="M100" s="68"/>
+      <c r="N100" s="68"/>
+      <c r="O100" s="68"/>
+      <c r="P100" s="70"/>
+      <c r="Q100" s="69"/>
+      <c r="R100" s="69"/>
+      <c r="S100" s="68"/>
+      <c r="T100" s="68"/>
+      <c r="U100" s="68"/>
+      <c r="V100" s="69"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="69"/>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="69"/>
-      <c r="J101" s="71"/>
-      <c r="K101" s="75"/>
-      <c r="L101" s="69"/>
-      <c r="M101" s="69"/>
-      <c r="N101" s="69"/>
-      <c r="O101" s="69"/>
-      <c r="P101" s="71"/>
-      <c r="Q101" s="70"/>
-      <c r="R101" s="70"/>
-      <c r="S101" s="69"/>
-      <c r="T101" s="69"/>
-      <c r="U101" s="69"/>
-      <c r="V101" s="70"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="74"/>
+      <c r="L101" s="68"/>
+      <c r="M101" s="68"/>
+      <c r="N101" s="68"/>
+      <c r="O101" s="68"/>
+      <c r="P101" s="70"/>
+      <c r="Q101" s="69"/>
+      <c r="R101" s="69"/>
+      <c r="S101" s="68"/>
+      <c r="T101" s="68"/>
+      <c r="U101" s="68"/>
+      <c r="V101" s="69"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="69"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="71"/>
-      <c r="K102" s="75"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="69"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="69"/>
-      <c r="P102" s="71"/>
-      <c r="Q102" s="70"/>
-      <c r="R102" s="70"/>
-      <c r="S102" s="69"/>
-      <c r="T102" s="69"/>
-      <c r="U102" s="69"/>
-      <c r="V102" s="70"/>
+      <c r="A102" s="68"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="68"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="68"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="68"/>
+      <c r="J102" s="70"/>
+      <c r="K102" s="74"/>
+      <c r="L102" s="68"/>
+      <c r="M102" s="68"/>
+      <c r="N102" s="68"/>
+      <c r="O102" s="68"/>
+      <c r="P102" s="70"/>
+      <c r="Q102" s="69"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="68"/>
+      <c r="T102" s="68"/>
+      <c r="U102" s="68"/>
+      <c r="V102" s="69"/>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="69"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="71"/>
-      <c r="I103" s="69"/>
-      <c r="J103" s="71"/>
-      <c r="K103" s="75"/>
-      <c r="L103" s="69"/>
-      <c r="M103" s="69"/>
-      <c r="N103" s="69"/>
-      <c r="O103" s="69"/>
-      <c r="P103" s="71"/>
-      <c r="Q103" s="70"/>
-      <c r="R103" s="70"/>
-      <c r="S103" s="69"/>
-      <c r="T103" s="69"/>
-      <c r="U103" s="69"/>
-      <c r="V103" s="70"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="74"/>
+      <c r="L103" s="68"/>
+      <c r="M103" s="68"/>
+      <c r="N103" s="68"/>
+      <c r="O103" s="68"/>
+      <c r="P103" s="70"/>
+      <c r="Q103" s="69"/>
+      <c r="R103" s="69"/>
+      <c r="S103" s="68"/>
+      <c r="T103" s="68"/>
+      <c r="U103" s="68"/>
+      <c r="V103" s="69"/>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="69"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="69"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="75"/>
-      <c r="L104" s="69"/>
-      <c r="M104" s="69"/>
-      <c r="N104" s="69"/>
-      <c r="O104" s="69"/>
-      <c r="P104" s="71"/>
-      <c r="Q104" s="70"/>
-      <c r="R104" s="70"/>
-      <c r="S104" s="69"/>
-      <c r="T104" s="69"/>
-      <c r="U104" s="69"/>
-      <c r="V104" s="70"/>
+      <c r="A104" s="68"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="68"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="68"/>
+      <c r="J104" s="70"/>
+      <c r="K104" s="74"/>
+      <c r="L104" s="68"/>
+      <c r="M104" s="68"/>
+      <c r="N104" s="68"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="70"/>
+      <c r="Q104" s="69"/>
+      <c r="R104" s="69"/>
+      <c r="S104" s="68"/>
+      <c r="T104" s="68"/>
+      <c r="U104" s="68"/>
+      <c r="V104" s="69"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="69"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="69"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="75"/>
-      <c r="L105" s="69"/>
-      <c r="M105" s="69"/>
-      <c r="N105" s="69"/>
-      <c r="O105" s="69"/>
-      <c r="P105" s="71"/>
-      <c r="Q105" s="70"/>
-      <c r="R105" s="70"/>
-      <c r="S105" s="69"/>
-      <c r="T105" s="69"/>
-      <c r="U105" s="69"/>
-      <c r="V105" s="70"/>
+      <c r="A105" s="68"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="68"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="74"/>
+      <c r="L105" s="68"/>
+      <c r="M105" s="68"/>
+      <c r="N105" s="68"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="70"/>
+      <c r="Q105" s="69"/>
+      <c r="R105" s="69"/>
+      <c r="S105" s="68"/>
+      <c r="T105" s="68"/>
+      <c r="U105" s="68"/>
+      <c r="V105" s="69"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="69"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="69"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="75"/>
-      <c r="L106" s="69"/>
-      <c r="M106" s="69"/>
-      <c r="N106" s="69"/>
-      <c r="O106" s="69"/>
-      <c r="P106" s="71"/>
-      <c r="Q106" s="70"/>
-      <c r="R106" s="70"/>
-      <c r="S106" s="69"/>
-      <c r="T106" s="69"/>
-      <c r="U106" s="69"/>
-      <c r="V106" s="70"/>
+      <c r="A106" s="68"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="68"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="68"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="68"/>
+      <c r="J106" s="70"/>
+      <c r="K106" s="74"/>
+      <c r="L106" s="68"/>
+      <c r="M106" s="68"/>
+      <c r="N106" s="68"/>
+      <c r="O106" s="68"/>
+      <c r="P106" s="70"/>
+      <c r="Q106" s="69"/>
+      <c r="R106" s="69"/>
+      <c r="S106" s="68"/>
+      <c r="T106" s="68"/>
+      <c r="U106" s="68"/>
+      <c r="V106" s="69"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="69"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="69"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="75"/>
-      <c r="L107" s="69"/>
-      <c r="M107" s="69"/>
-      <c r="N107" s="69"/>
-      <c r="O107" s="69"/>
-      <c r="P107" s="71"/>
-      <c r="Q107" s="70"/>
-      <c r="R107" s="70"/>
-      <c r="S107" s="69"/>
-      <c r="T107" s="69"/>
-      <c r="U107" s="69"/>
-      <c r="V107" s="70"/>
+      <c r="A107" s="68"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="68"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="68"/>
+      <c r="J107" s="70"/>
+      <c r="K107" s="74"/>
+      <c r="L107" s="68"/>
+      <c r="M107" s="68"/>
+      <c r="N107" s="68"/>
+      <c r="O107" s="68"/>
+      <c r="P107" s="70"/>
+      <c r="Q107" s="69"/>
+      <c r="R107" s="69"/>
+      <c r="S107" s="68"/>
+      <c r="T107" s="68"/>
+      <c r="U107" s="68"/>
+      <c r="V107" s="69"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="69"/>
-      <c r="B108" s="69"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="69"/>
-      <c r="J108" s="71"/>
-      <c r="K108" s="75"/>
-      <c r="L108" s="69"/>
-      <c r="M108" s="69"/>
-      <c r="N108" s="69"/>
-      <c r="O108" s="69"/>
-      <c r="P108" s="71"/>
-      <c r="Q108" s="70"/>
-      <c r="R108" s="70"/>
-      <c r="S108" s="69"/>
-      <c r="T108" s="69"/>
-      <c r="U108" s="69"/>
-      <c r="V108" s="70"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="68"/>
+      <c r="J108" s="70"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="68"/>
+      <c r="M108" s="68"/>
+      <c r="N108" s="68"/>
+      <c r="O108" s="68"/>
+      <c r="P108" s="70"/>
+      <c r="Q108" s="69"/>
+      <c r="R108" s="69"/>
+      <c r="S108" s="68"/>
+      <c r="T108" s="68"/>
+      <c r="U108" s="68"/>
+      <c r="V108" s="69"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="69"/>
-      <c r="B109" s="69"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="69"/>
-      <c r="J109" s="71"/>
-      <c r="K109" s="75"/>
-      <c r="L109" s="69"/>
-      <c r="M109" s="69"/>
-      <c r="N109" s="69"/>
-      <c r="O109" s="69"/>
-      <c r="P109" s="71"/>
-      <c r="Q109" s="70"/>
-      <c r="R109" s="70"/>
-      <c r="S109" s="69"/>
-      <c r="T109" s="69"/>
-      <c r="U109" s="69"/>
-      <c r="V109" s="70"/>
+      <c r="A109" s="68"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="68"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="68"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="68"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="68"/>
+      <c r="M109" s="68"/>
+      <c r="N109" s="68"/>
+      <c r="O109" s="68"/>
+      <c r="P109" s="70"/>
+      <c r="Q109" s="69"/>
+      <c r="R109" s="69"/>
+      <c r="S109" s="68"/>
+      <c r="T109" s="68"/>
+      <c r="U109" s="68"/>
+      <c r="V109" s="69"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="69"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="69"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="69"/>
-      <c r="J110" s="71"/>
-      <c r="K110" s="75"/>
-      <c r="L110" s="69"/>
-      <c r="M110" s="69"/>
-      <c r="N110" s="69"/>
-      <c r="O110" s="69"/>
-      <c r="P110" s="71"/>
-      <c r="Q110" s="70"/>
-      <c r="R110" s="70"/>
-      <c r="S110" s="69"/>
-      <c r="T110" s="69"/>
-      <c r="U110" s="69"/>
-      <c r="V110" s="70"/>
+      <c r="A110" s="68"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="68"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="68"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="68"/>
+      <c r="J110" s="70"/>
+      <c r="K110" s="74"/>
+      <c r="L110" s="68"/>
+      <c r="M110" s="68"/>
+      <c r="N110" s="68"/>
+      <c r="O110" s="68"/>
+      <c r="P110" s="70"/>
+      <c r="Q110" s="69"/>
+      <c r="R110" s="69"/>
+      <c r="S110" s="68"/>
+      <c r="T110" s="68"/>
+      <c r="U110" s="68"/>
+      <c r="V110" s="69"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="69"/>
-      <c r="B111" s="69"/>
-      <c r="C111" s="69"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="69"/>
-      <c r="J111" s="71"/>
-      <c r="K111" s="75"/>
-      <c r="L111" s="69"/>
-      <c r="M111" s="69"/>
-      <c r="N111" s="69"/>
-      <c r="O111" s="69"/>
-      <c r="P111" s="71"/>
-      <c r="Q111" s="70"/>
-      <c r="R111" s="70"/>
-      <c r="S111" s="69"/>
-      <c r="T111" s="69"/>
-      <c r="U111" s="69"/>
-      <c r="V111" s="70"/>
+      <c r="A111" s="68"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="74"/>
+      <c r="L111" s="68"/>
+      <c r="M111" s="68"/>
+      <c r="N111" s="68"/>
+      <c r="O111" s="68"/>
+      <c r="P111" s="70"/>
+      <c r="Q111" s="69"/>
+      <c r="R111" s="69"/>
+      <c r="S111" s="68"/>
+      <c r="T111" s="68"/>
+      <c r="U111" s="68"/>
+      <c r="V111" s="69"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="69"/>
-      <c r="B112" s="69"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="69"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="69"/>
-      <c r="J112" s="71"/>
-      <c r="K112" s="75"/>
-      <c r="L112" s="69"/>
-      <c r="M112" s="69"/>
-      <c r="N112" s="69"/>
-      <c r="O112" s="69"/>
-      <c r="P112" s="71"/>
-      <c r="Q112" s="70"/>
-      <c r="R112" s="70"/>
-      <c r="S112" s="69"/>
-      <c r="T112" s="69"/>
-      <c r="U112" s="69"/>
-      <c r="V112" s="70"/>
+      <c r="A112" s="68"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="68"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="68"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="74"/>
+      <c r="L112" s="68"/>
+      <c r="M112" s="68"/>
+      <c r="N112" s="68"/>
+      <c r="O112" s="68"/>
+      <c r="P112" s="70"/>
+      <c r="Q112" s="69"/>
+      <c r="R112" s="69"/>
+      <c r="S112" s="68"/>
+      <c r="T112" s="68"/>
+      <c r="U112" s="68"/>
+      <c r="V112" s="69"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="69"/>
-      <c r="B113" s="69"/>
-      <c r="C113" s="69"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="69"/>
-      <c r="J113" s="71"/>
-      <c r="K113" s="75"/>
-      <c r="L113" s="69"/>
-      <c r="M113" s="69"/>
-      <c r="N113" s="69"/>
-      <c r="O113" s="69"/>
-      <c r="P113" s="71"/>
-      <c r="Q113" s="70"/>
-      <c r="R113" s="70"/>
-      <c r="S113" s="69"/>
-      <c r="T113" s="69"/>
-      <c r="U113" s="69"/>
-      <c r="V113" s="70"/>
+      <c r="A113" s="68"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="70"/>
+      <c r="K113" s="74"/>
+      <c r="L113" s="68"/>
+      <c r="M113" s="68"/>
+      <c r="N113" s="68"/>
+      <c r="O113" s="68"/>
+      <c r="P113" s="70"/>
+      <c r="Q113" s="69"/>
+      <c r="R113" s="69"/>
+      <c r="S113" s="68"/>
+      <c r="T113" s="68"/>
+      <c r="U113" s="68"/>
+      <c r="V113" s="69"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="69"/>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="69"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="69"/>
-      <c r="J114" s="71"/>
-      <c r="K114" s="75"/>
-      <c r="L114" s="69"/>
-      <c r="M114" s="69"/>
-      <c r="N114" s="69"/>
-      <c r="O114" s="69"/>
-      <c r="P114" s="71"/>
-      <c r="Q114" s="70"/>
-      <c r="R114" s="70"/>
-      <c r="S114" s="69"/>
-      <c r="T114" s="69"/>
-      <c r="U114" s="69"/>
-      <c r="V114" s="70"/>
+      <c r="A114" s="68"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="68"/>
+      <c r="J114" s="70"/>
+      <c r="K114" s="74"/>
+      <c r="L114" s="68"/>
+      <c r="M114" s="68"/>
+      <c r="N114" s="68"/>
+      <c r="O114" s="68"/>
+      <c r="P114" s="70"/>
+      <c r="Q114" s="69"/>
+      <c r="R114" s="69"/>
+      <c r="S114" s="68"/>
+      <c r="T114" s="68"/>
+      <c r="U114" s="68"/>
+      <c r="V114" s="69"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="69"/>
-      <c r="B115" s="69"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="69"/>
-      <c r="J115" s="71"/>
-      <c r="K115" s="75"/>
-      <c r="L115" s="69"/>
-      <c r="M115" s="69"/>
-      <c r="N115" s="69"/>
-      <c r="O115" s="69"/>
-      <c r="P115" s="71"/>
-      <c r="Q115" s="70"/>
-      <c r="R115" s="70"/>
-      <c r="S115" s="69"/>
-      <c r="T115" s="69"/>
-      <c r="U115" s="69"/>
-      <c r="V115" s="70"/>
+      <c r="A115" s="68"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="68"/>
+      <c r="J115" s="70"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="68"/>
+      <c r="M115" s="68"/>
+      <c r="N115" s="68"/>
+      <c r="O115" s="68"/>
+      <c r="P115" s="70"/>
+      <c r="Q115" s="69"/>
+      <c r="R115" s="69"/>
+      <c r="S115" s="68"/>
+      <c r="T115" s="68"/>
+      <c r="U115" s="68"/>
+      <c r="V115" s="69"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="69"/>
-      <c r="B116" s="69"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="69"/>
-      <c r="J116" s="71"/>
-      <c r="K116" s="75"/>
-      <c r="L116" s="69"/>
-      <c r="M116" s="69"/>
-      <c r="N116" s="69"/>
-      <c r="O116" s="69"/>
-      <c r="P116" s="71"/>
-      <c r="Q116" s="70"/>
-      <c r="R116" s="70"/>
-      <c r="S116" s="69"/>
-      <c r="T116" s="69"/>
-      <c r="U116" s="69"/>
-      <c r="V116" s="70"/>
+      <c r="A116" s="68"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="68"/>
+      <c r="J116" s="70"/>
+      <c r="K116" s="74"/>
+      <c r="L116" s="68"/>
+      <c r="M116" s="68"/>
+      <c r="N116" s="68"/>
+      <c r="O116" s="68"/>
+      <c r="P116" s="70"/>
+      <c r="Q116" s="69"/>
+      <c r="R116" s="69"/>
+      <c r="S116" s="68"/>
+      <c r="T116" s="68"/>
+      <c r="U116" s="68"/>
+      <c r="V116" s="69"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="69"/>
-      <c r="B117" s="69"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="69"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="75"/>
-      <c r="L117" s="69"/>
-      <c r="M117" s="69"/>
-      <c r="N117" s="69"/>
-      <c r="O117" s="69"/>
-      <c r="P117" s="71"/>
-      <c r="Q117" s="70"/>
-      <c r="R117" s="70"/>
-      <c r="S117" s="69"/>
-      <c r="T117" s="69"/>
-      <c r="U117" s="69"/>
-      <c r="V117" s="70"/>
+      <c r="A117" s="68"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="70"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="68"/>
+      <c r="M117" s="68"/>
+      <c r="N117" s="68"/>
+      <c r="O117" s="68"/>
+      <c r="P117" s="70"/>
+      <c r="Q117" s="69"/>
+      <c r="R117" s="69"/>
+      <c r="S117" s="68"/>
+      <c r="T117" s="68"/>
+      <c r="U117" s="68"/>
+      <c r="V117" s="69"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="69"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="69"/>
-      <c r="J118" s="71"/>
-      <c r="K118" s="75"/>
-      <c r="L118" s="69"/>
-      <c r="M118" s="69"/>
-      <c r="N118" s="69"/>
-      <c r="O118" s="69"/>
-      <c r="P118" s="71"/>
-      <c r="Q118" s="70"/>
-      <c r="R118" s="70"/>
-      <c r="S118" s="69"/>
-      <c r="T118" s="69"/>
-      <c r="U118" s="69"/>
-      <c r="V118" s="70"/>
+      <c r="A118" s="68"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="68"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="68"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="68"/>
+      <c r="J118" s="70"/>
+      <c r="K118" s="74"/>
+      <c r="L118" s="68"/>
+      <c r="M118" s="68"/>
+      <c r="N118" s="68"/>
+      <c r="O118" s="68"/>
+      <c r="P118" s="70"/>
+      <c r="Q118" s="69"/>
+      <c r="R118" s="69"/>
+      <c r="S118" s="68"/>
+      <c r="T118" s="68"/>
+      <c r="U118" s="68"/>
+      <c r="V118" s="69"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="69"/>
-      <c r="B119" s="69"/>
-      <c r="C119" s="69"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="69"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="69"/>
-      <c r="J119" s="71"/>
-      <c r="K119" s="75"/>
-      <c r="L119" s="69"/>
-      <c r="M119" s="69"/>
-      <c r="N119" s="69"/>
-      <c r="O119" s="69"/>
-      <c r="P119" s="71"/>
-      <c r="Q119" s="70"/>
-      <c r="R119" s="70"/>
-      <c r="S119" s="69"/>
-      <c r="T119" s="69"/>
-      <c r="U119" s="69"/>
-      <c r="V119" s="70"/>
+      <c r="A119" s="68"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="70"/>
+      <c r="I119" s="68"/>
+      <c r="J119" s="70"/>
+      <c r="K119" s="74"/>
+      <c r="L119" s="68"/>
+      <c r="M119" s="68"/>
+      <c r="N119" s="68"/>
+      <c r="O119" s="68"/>
+      <c r="P119" s="70"/>
+      <c r="Q119" s="69"/>
+      <c r="R119" s="69"/>
+      <c r="S119" s="68"/>
+      <c r="T119" s="68"/>
+      <c r="U119" s="68"/>
+      <c r="V119" s="69"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="69"/>
-      <c r="B120" s="69"/>
-      <c r="C120" s="69"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="69"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="69"/>
-      <c r="J120" s="71"/>
-      <c r="K120" s="75"/>
-      <c r="L120" s="69"/>
-      <c r="M120" s="69"/>
-      <c r="N120" s="69"/>
-      <c r="O120" s="69"/>
-      <c r="P120" s="71"/>
-      <c r="Q120" s="70"/>
-      <c r="R120" s="70"/>
-      <c r="S120" s="69"/>
-      <c r="T120" s="69"/>
-      <c r="U120" s="69"/>
-      <c r="V120" s="70"/>
+      <c r="A120" s="68"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="68"/>
+      <c r="J120" s="70"/>
+      <c r="K120" s="74"/>
+      <c r="L120" s="68"/>
+      <c r="M120" s="68"/>
+      <c r="N120" s="68"/>
+      <c r="O120" s="68"/>
+      <c r="P120" s="70"/>
+      <c r="Q120" s="69"/>
+      <c r="R120" s="69"/>
+      <c r="S120" s="68"/>
+      <c r="T120" s="68"/>
+      <c r="U120" s="68"/>
+      <c r="V120" s="69"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="69"/>
-      <c r="B121" s="69"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="69"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="69"/>
-      <c r="J121" s="71"/>
-      <c r="K121" s="75"/>
-      <c r="L121" s="69"/>
-      <c r="M121" s="69"/>
-      <c r="N121" s="69"/>
-      <c r="O121" s="69"/>
-      <c r="P121" s="71"/>
-      <c r="Q121" s="70"/>
-      <c r="R121" s="70"/>
-      <c r="S121" s="69"/>
-      <c r="T121" s="69"/>
-      <c r="U121" s="69"/>
-      <c r="V121" s="70"/>
+      <c r="A121" s="68"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="70"/>
+      <c r="I121" s="68"/>
+      <c r="J121" s="70"/>
+      <c r="K121" s="74"/>
+      <c r="L121" s="68"/>
+      <c r="M121" s="68"/>
+      <c r="N121" s="68"/>
+      <c r="O121" s="68"/>
+      <c r="P121" s="70"/>
+      <c r="Q121" s="69"/>
+      <c r="R121" s="69"/>
+      <c r="S121" s="68"/>
+      <c r="T121" s="68"/>
+      <c r="U121" s="68"/>
+      <c r="V121" s="69"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="69"/>
-      <c r="B122" s="69"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="69"/>
-      <c r="F122" s="69"/>
-      <c r="G122" s="69"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="69"/>
-      <c r="J122" s="71"/>
-      <c r="K122" s="75"/>
-      <c r="L122" s="69"/>
-      <c r="M122" s="69"/>
-      <c r="N122" s="69"/>
-      <c r="O122" s="69"/>
-      <c r="P122" s="71"/>
-      <c r="Q122" s="70"/>
-      <c r="R122" s="70"/>
-      <c r="S122" s="69"/>
-      <c r="T122" s="69"/>
-      <c r="U122" s="69"/>
-      <c r="V122" s="70"/>
+      <c r="A122" s="68"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="68"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="68"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="70"/>
+      <c r="I122" s="68"/>
+      <c r="J122" s="70"/>
+      <c r="K122" s="74"/>
+      <c r="L122" s="68"/>
+      <c r="M122" s="68"/>
+      <c r="N122" s="68"/>
+      <c r="O122" s="68"/>
+      <c r="P122" s="70"/>
+      <c r="Q122" s="69"/>
+      <c r="R122" s="69"/>
+      <c r="S122" s="68"/>
+      <c r="T122" s="68"/>
+      <c r="U122" s="68"/>
+      <c r="V122" s="69"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="69"/>
-      <c r="B123" s="69"/>
-      <c r="C123" s="69"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="69"/>
-      <c r="G123" s="69"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="69"/>
-      <c r="J123" s="71"/>
-      <c r="K123" s="75"/>
-      <c r="L123" s="69"/>
-      <c r="M123" s="69"/>
-      <c r="N123" s="69"/>
-      <c r="O123" s="69"/>
-      <c r="P123" s="71"/>
-      <c r="Q123" s="70"/>
-      <c r="R123" s="70"/>
-      <c r="S123" s="69"/>
-      <c r="T123" s="69"/>
-      <c r="U123" s="69"/>
-      <c r="V123" s="70"/>
+      <c r="A123" s="68"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="68"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="68"/>
+      <c r="J123" s="70"/>
+      <c r="K123" s="74"/>
+      <c r="L123" s="68"/>
+      <c r="M123" s="68"/>
+      <c r="N123" s="68"/>
+      <c r="O123" s="68"/>
+      <c r="P123" s="70"/>
+      <c r="Q123" s="69"/>
+      <c r="R123" s="69"/>
+      <c r="S123" s="68"/>
+      <c r="T123" s="68"/>
+      <c r="U123" s="68"/>
+      <c r="V123" s="69"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="69"/>
-      <c r="B124" s="69"/>
-      <c r="C124" s="69"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="69"/>
-      <c r="J124" s="71"/>
-      <c r="K124" s="75"/>
-      <c r="L124" s="69"/>
-      <c r="M124" s="69"/>
-      <c r="N124" s="69"/>
-      <c r="O124" s="69"/>
-      <c r="P124" s="71"/>
-      <c r="Q124" s="70"/>
-      <c r="R124" s="70"/>
-      <c r="S124" s="69"/>
-      <c r="T124" s="69"/>
-      <c r="U124" s="69"/>
-      <c r="V124" s="70"/>
+      <c r="A124" s="68"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="68"/>
+      <c r="J124" s="70"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="68"/>
+      <c r="M124" s="68"/>
+      <c r="N124" s="68"/>
+      <c r="O124" s="68"/>
+      <c r="P124" s="70"/>
+      <c r="Q124" s="69"/>
+      <c r="R124" s="69"/>
+      <c r="S124" s="68"/>
+      <c r="T124" s="68"/>
+      <c r="U124" s="68"/>
+      <c r="V124" s="69"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="69"/>
-      <c r="B125" s="69"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="70"/>
-      <c r="E125" s="69"/>
-      <c r="F125" s="69"/>
-      <c r="G125" s="69"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="69"/>
-      <c r="J125" s="71"/>
-      <c r="K125" s="75"/>
-      <c r="L125" s="69"/>
-      <c r="M125" s="69"/>
-      <c r="N125" s="69"/>
-      <c r="O125" s="69"/>
-      <c r="P125" s="71"/>
-      <c r="Q125" s="70"/>
-      <c r="R125" s="70"/>
-      <c r="S125" s="69"/>
-      <c r="T125" s="69"/>
-      <c r="U125" s="69"/>
-      <c r="V125" s="70"/>
+      <c r="A125" s="68"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="68"/>
+      <c r="D125" s="69"/>
+      <c r="E125" s="68"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="70"/>
+      <c r="I125" s="68"/>
+      <c r="J125" s="70"/>
+      <c r="K125" s="74"/>
+      <c r="L125" s="68"/>
+      <c r="M125" s="68"/>
+      <c r="N125" s="68"/>
+      <c r="O125" s="68"/>
+      <c r="P125" s="70"/>
+      <c r="Q125" s="69"/>
+      <c r="R125" s="69"/>
+      <c r="S125" s="68"/>
+      <c r="T125" s="68"/>
+      <c r="U125" s="68"/>
+      <c r="V125" s="69"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="69"/>
-      <c r="B126" s="69"/>
-      <c r="C126" s="69"/>
-      <c r="D126" s="70"/>
-      <c r="E126" s="69"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="69"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="69"/>
-      <c r="J126" s="71"/>
-      <c r="K126" s="75"/>
-      <c r="L126" s="69"/>
-      <c r="M126" s="69"/>
-      <c r="N126" s="69"/>
-      <c r="O126" s="69"/>
-      <c r="P126" s="71"/>
-      <c r="Q126" s="70"/>
-      <c r="R126" s="70"/>
-      <c r="S126" s="69"/>
-      <c r="T126" s="69"/>
-      <c r="U126" s="69"/>
-      <c r="V126" s="70"/>
+      <c r="A126" s="68"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="68"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="68"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="70"/>
+      <c r="I126" s="68"/>
+      <c r="J126" s="70"/>
+      <c r="K126" s="74"/>
+      <c r="L126" s="68"/>
+      <c r="M126" s="68"/>
+      <c r="N126" s="68"/>
+      <c r="O126" s="68"/>
+      <c r="P126" s="70"/>
+      <c r="Q126" s="69"/>
+      <c r="R126" s="69"/>
+      <c r="S126" s="68"/>
+      <c r="T126" s="68"/>
+      <c r="U126" s="68"/>
+      <c r="V126" s="69"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="69"/>
-      <c r="B127" s="69"/>
-      <c r="C127" s="69"/>
-      <c r="D127" s="70"/>
-      <c r="E127" s="69"/>
-      <c r="F127" s="69"/>
-      <c r="G127" s="69"/>
-      <c r="H127" s="71"/>
-      <c r="I127" s="69"/>
-      <c r="J127" s="71"/>
-      <c r="K127" s="75"/>
-      <c r="L127" s="69"/>
-      <c r="M127" s="69"/>
-      <c r="N127" s="69"/>
-      <c r="O127" s="69"/>
-      <c r="P127" s="71"/>
-      <c r="Q127" s="70"/>
-      <c r="R127" s="70"/>
-      <c r="S127" s="69"/>
-      <c r="T127" s="69"/>
-      <c r="U127" s="69"/>
-      <c r="V127" s="70"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="69"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="68"/>
+      <c r="J127" s="70"/>
+      <c r="K127" s="74"/>
+      <c r="L127" s="68"/>
+      <c r="M127" s="68"/>
+      <c r="N127" s="68"/>
+      <c r="O127" s="68"/>
+      <c r="P127" s="70"/>
+      <c r="Q127" s="69"/>
+      <c r="R127" s="69"/>
+      <c r="S127" s="68"/>
+      <c r="T127" s="68"/>
+      <c r="U127" s="68"/>
+      <c r="V127" s="69"/>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="69"/>
-      <c r="B128" s="69"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="70"/>
-      <c r="E128" s="69"/>
-      <c r="F128" s="69"/>
-      <c r="G128" s="69"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="69"/>
-      <c r="J128" s="71"/>
-      <c r="K128" s="75"/>
-      <c r="L128" s="69"/>
-      <c r="M128" s="69"/>
-      <c r="N128" s="69"/>
-      <c r="O128" s="69"/>
-      <c r="P128" s="71"/>
-      <c r="Q128" s="70"/>
-      <c r="R128" s="70"/>
-      <c r="S128" s="69"/>
-      <c r="T128" s="69"/>
-      <c r="U128" s="69"/>
-      <c r="V128" s="70"/>
+      <c r="A128" s="68"/>
+      <c r="B128" s="68"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="70"/>
+      <c r="I128" s="68"/>
+      <c r="J128" s="70"/>
+      <c r="K128" s="74"/>
+      <c r="L128" s="68"/>
+      <c r="M128" s="68"/>
+      <c r="N128" s="68"/>
+      <c r="O128" s="68"/>
+      <c r="P128" s="70"/>
+      <c r="Q128" s="69"/>
+      <c r="R128" s="69"/>
+      <c r="S128" s="68"/>
+      <c r="T128" s="68"/>
+      <c r="U128" s="68"/>
+      <c r="V128" s="69"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="69"/>
-      <c r="B129" s="69"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="69"/>
-      <c r="G129" s="69"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="69"/>
-      <c r="J129" s="71"/>
-      <c r="K129" s="75"/>
-      <c r="L129" s="69"/>
-      <c r="M129" s="69"/>
-      <c r="N129" s="69"/>
-      <c r="O129" s="69"/>
-      <c r="P129" s="71"/>
-      <c r="Q129" s="70"/>
-      <c r="R129" s="70"/>
-      <c r="S129" s="69"/>
-      <c r="T129" s="69"/>
-      <c r="U129" s="69"/>
-      <c r="V129" s="70"/>
+      <c r="A129" s="68"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="70"/>
+      <c r="I129" s="68"/>
+      <c r="J129" s="70"/>
+      <c r="K129" s="74"/>
+      <c r="L129" s="68"/>
+      <c r="M129" s="68"/>
+      <c r="N129" s="68"/>
+      <c r="O129" s="68"/>
+      <c r="P129" s="70"/>
+      <c r="Q129" s="69"/>
+      <c r="R129" s="69"/>
+      <c r="S129" s="68"/>
+      <c r="T129" s="68"/>
+      <c r="U129" s="68"/>
+      <c r="V129" s="69"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="69"/>
-      <c r="B130" s="69"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="69"/>
-      <c r="F130" s="69"/>
-      <c r="G130" s="69"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="69"/>
-      <c r="J130" s="71"/>
-      <c r="K130" s="75"/>
-      <c r="L130" s="69"/>
-      <c r="M130" s="69"/>
-      <c r="N130" s="69"/>
-      <c r="O130" s="69"/>
-      <c r="P130" s="71"/>
-      <c r="Q130" s="70"/>
-      <c r="V130" s="70"/>
+      <c r="A130" s="68"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="68"/>
+      <c r="H130" s="70"/>
+      <c r="I130" s="68"/>
+      <c r="J130" s="70"/>
+      <c r="K130" s="74"/>
+      <c r="L130" s="68"/>
+      <c r="M130" s="68"/>
+      <c r="N130" s="68"/>
+      <c r="O130" s="68"/>
+      <c r="P130" s="70"/>
+      <c r="Q130" s="69"/>
+      <c r="V130" s="69"/>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="69"/>
-      <c r="B131" s="69"/>
-      <c r="C131" s="69"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="69"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="69"/>
-      <c r="J131" s="71"/>
-      <c r="K131" s="75"/>
-      <c r="L131" s="69"/>
-      <c r="M131" s="69"/>
-      <c r="N131" s="69"/>
-      <c r="O131" s="69"/>
-      <c r="P131" s="71"/>
-      <c r="Q131" s="70"/>
-      <c r="V131" s="70"/>
+      <c r="A131" s="68"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="68"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="68"/>
+      <c r="J131" s="70"/>
+      <c r="K131" s="74"/>
+      <c r="L131" s="68"/>
+      <c r="M131" s="68"/>
+      <c r="N131" s="68"/>
+      <c r="O131" s="68"/>
+      <c r="P131" s="70"/>
+      <c r="Q131" s="69"/>
+      <c r="V131" s="69"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="69"/>
-      <c r="B132" s="69"/>
-      <c r="C132" s="69"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="69"/>
-      <c r="G132" s="69"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="69"/>
-      <c r="J132" s="71"/>
-      <c r="K132" s="75"/>
-      <c r="L132" s="69"/>
-      <c r="M132" s="69"/>
-      <c r="N132" s="69"/>
-      <c r="O132" s="69"/>
-      <c r="P132" s="71"/>
-      <c r="Q132" s="70"/>
-      <c r="V132" s="70"/>
+      <c r="A132" s="68"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="68"/>
+      <c r="D132" s="69"/>
+      <c r="E132" s="68"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="68"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="68"/>
+      <c r="J132" s="70"/>
+      <c r="K132" s="74"/>
+      <c r="L132" s="68"/>
+      <c r="M132" s="68"/>
+      <c r="N132" s="68"/>
+      <c r="O132" s="68"/>
+      <c r="P132" s="70"/>
+      <c r="Q132" s="69"/>
+      <c r="V132" s="69"/>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="69"/>
-      <c r="B133" s="69"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="69"/>
-      <c r="F133" s="69"/>
-      <c r="G133" s="69"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="69"/>
-      <c r="J133" s="71"/>
-      <c r="K133" s="75"/>
-      <c r="L133" s="69"/>
-      <c r="M133" s="69"/>
-      <c r="N133" s="69"/>
-      <c r="O133" s="69"/>
-      <c r="P133" s="71"/>
-      <c r="Q133" s="70"/>
-      <c r="V133" s="70"/>
+      <c r="A133" s="68"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="68"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="70"/>
+      <c r="I133" s="68"/>
+      <c r="J133" s="70"/>
+      <c r="K133" s="74"/>
+      <c r="L133" s="68"/>
+      <c r="M133" s="68"/>
+      <c r="N133" s="68"/>
+      <c r="O133" s="68"/>
+      <c r="P133" s="70"/>
+      <c r="Q133" s="69"/>
+      <c r="V133" s="69"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="69"/>
-      <c r="B134" s="69"/>
-      <c r="C134" s="69"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="69"/>
-      <c r="F134" s="69"/>
-      <c r="G134" s="69"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="69"/>
-      <c r="J134" s="71"/>
-      <c r="K134" s="75"/>
-      <c r="L134" s="69"/>
-      <c r="M134" s="69"/>
-      <c r="N134" s="69"/>
-      <c r="O134" s="69"/>
-      <c r="P134" s="71"/>
-      <c r="Q134" s="70"/>
-      <c r="V134" s="70"/>
+      <c r="A134" s="68"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
+      <c r="H134" s="70"/>
+      <c r="I134" s="68"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="74"/>
+      <c r="L134" s="68"/>
+      <c r="M134" s="68"/>
+      <c r="N134" s="68"/>
+      <c r="O134" s="68"/>
+      <c r="P134" s="70"/>
+      <c r="Q134" s="69"/>
+      <c r="V134" s="69"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="69"/>
-      <c r="B135" s="69"/>
-      <c r="C135" s="69"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="69"/>
-      <c r="F135" s="69"/>
-      <c r="G135" s="69"/>
-      <c r="H135" s="71"/>
-      <c r="I135" s="69"/>
-      <c r="J135" s="71"/>
-      <c r="K135" s="75"/>
-      <c r="L135" s="69"/>
-      <c r="M135" s="69"/>
-      <c r="N135" s="69"/>
-      <c r="O135" s="69"/>
-      <c r="P135" s="71"/>
-      <c r="Q135" s="70"/>
-      <c r="V135" s="70"/>
+      <c r="A135" s="68"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="68"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="68"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="68"/>
+      <c r="J135" s="70"/>
+      <c r="K135" s="74"/>
+      <c r="L135" s="68"/>
+      <c r="M135" s="68"/>
+      <c r="N135" s="68"/>
+      <c r="O135" s="68"/>
+      <c r="P135" s="70"/>
+      <c r="Q135" s="69"/>
+      <c r="V135" s="69"/>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="69"/>
-      <c r="B136" s="69"/>
-      <c r="C136" s="69"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="69"/>
-      <c r="F136" s="69"/>
-      <c r="G136" s="69"/>
-      <c r="H136" s="71"/>
-      <c r="I136" s="69"/>
-      <c r="J136" s="71"/>
-      <c r="K136" s="75"/>
-      <c r="L136" s="69"/>
-      <c r="M136" s="69"/>
-      <c r="N136" s="69"/>
-      <c r="O136" s="69"/>
-      <c r="P136" s="71"/>
-      <c r="Q136" s="70"/>
-      <c r="V136" s="70"/>
+      <c r="A136" s="68"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
+      <c r="H136" s="70"/>
+      <c r="I136" s="68"/>
+      <c r="J136" s="70"/>
+      <c r="K136" s="74"/>
+      <c r="L136" s="68"/>
+      <c r="M136" s="68"/>
+      <c r="N136" s="68"/>
+      <c r="O136" s="68"/>
+      <c r="P136" s="70"/>
+      <c r="Q136" s="69"/>
+      <c r="V136" s="69"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="69"/>
-      <c r="B137" s="69"/>
-      <c r="C137" s="69"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="69"/>
-      <c r="F137" s="69"/>
-      <c r="G137" s="69"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="69"/>
-      <c r="J137" s="71"/>
-      <c r="K137" s="75"/>
-      <c r="L137" s="69"/>
-      <c r="M137" s="69"/>
-      <c r="N137" s="69"/>
-      <c r="O137" s="69"/>
-      <c r="P137" s="71"/>
-      <c r="Q137" s="70"/>
-      <c r="V137" s="70"/>
+      <c r="A137" s="68"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="70"/>
+      <c r="I137" s="68"/>
+      <c r="J137" s="70"/>
+      <c r="K137" s="74"/>
+      <c r="L137" s="68"/>
+      <c r="M137" s="68"/>
+      <c r="N137" s="68"/>
+      <c r="O137" s="68"/>
+      <c r="P137" s="70"/>
+      <c r="Q137" s="69"/>
+      <c r="V137" s="69"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="69"/>
-      <c r="B138" s="69"/>
-      <c r="C138" s="69"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="69"/>
-      <c r="F138" s="69"/>
-      <c r="G138" s="69"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="69"/>
-      <c r="J138" s="71"/>
-      <c r="K138" s="75"/>
-      <c r="L138" s="69"/>
-      <c r="M138" s="69"/>
-      <c r="N138" s="69"/>
-      <c r="O138" s="69"/>
-      <c r="P138" s="71"/>
-      <c r="Q138" s="70"/>
-      <c r="V138" s="70"/>
+      <c r="A138" s="68"/>
+      <c r="B138" s="68"/>
+      <c r="C138" s="68"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="68"/>
+      <c r="F138" s="68"/>
+      <c r="G138" s="68"/>
+      <c r="H138" s="70"/>
+      <c r="I138" s="68"/>
+      <c r="J138" s="70"/>
+      <c r="K138" s="74"/>
+      <c r="L138" s="68"/>
+      <c r="M138" s="68"/>
+      <c r="N138" s="68"/>
+      <c r="O138" s="68"/>
+      <c r="P138" s="70"/>
+      <c r="Q138" s="69"/>
+      <c r="V138" s="69"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="69"/>
-      <c r="B139" s="69"/>
-      <c r="C139" s="69"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="69"/>
-      <c r="F139" s="69"/>
-      <c r="G139" s="69"/>
-      <c r="H139" s="71"/>
-      <c r="I139" s="69"/>
-      <c r="J139" s="71"/>
-      <c r="K139" s="75"/>
-      <c r="L139" s="69"/>
-      <c r="M139" s="69"/>
-      <c r="N139" s="69"/>
-      <c r="O139" s="69"/>
-      <c r="P139" s="71"/>
-      <c r="Q139" s="70"/>
-      <c r="V139" s="70"/>
+      <c r="A139" s="68"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="68"/>
+      <c r="F139" s="68"/>
+      <c r="G139" s="68"/>
+      <c r="H139" s="70"/>
+      <c r="I139" s="68"/>
+      <c r="J139" s="70"/>
+      <c r="K139" s="74"/>
+      <c r="L139" s="68"/>
+      <c r="M139" s="68"/>
+      <c r="N139" s="68"/>
+      <c r="O139" s="68"/>
+      <c r="P139" s="70"/>
+      <c r="Q139" s="69"/>
+      <c r="V139" s="69"/>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="69"/>
-      <c r="B140" s="69"/>
-      <c r="C140" s="69"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="69"/>
-      <c r="F140" s="69"/>
-      <c r="G140" s="69"/>
-      <c r="H140" s="71"/>
-      <c r="I140" s="69"/>
-      <c r="J140" s="71"/>
-      <c r="K140" s="75"/>
-      <c r="L140" s="69"/>
-      <c r="M140" s="69"/>
-      <c r="N140" s="69"/>
-      <c r="O140" s="69"/>
-      <c r="P140" s="71"/>
-      <c r="Q140" s="70"/>
-      <c r="V140" s="70"/>
+      <c r="A140" s="68"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="69"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="68"/>
+      <c r="H140" s="70"/>
+      <c r="I140" s="68"/>
+      <c r="J140" s="70"/>
+      <c r="K140" s="74"/>
+      <c r="L140" s="68"/>
+      <c r="M140" s="68"/>
+      <c r="N140" s="68"/>
+      <c r="O140" s="68"/>
+      <c r="P140" s="70"/>
+      <c r="Q140" s="69"/>
+      <c r="V140" s="69"/>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="69"/>
-      <c r="B141" s="69"/>
-      <c r="C141" s="69"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="69"/>
-      <c r="F141" s="69"/>
-      <c r="G141" s="69"/>
-      <c r="H141" s="71"/>
-      <c r="I141" s="69"/>
-      <c r="J141" s="71"/>
-      <c r="K141" s="75"/>
-      <c r="L141" s="69"/>
-      <c r="M141" s="69"/>
-      <c r="N141" s="69"/>
-      <c r="O141" s="69"/>
-      <c r="P141" s="71"/>
-      <c r="Q141" s="70"/>
-      <c r="V141" s="70"/>
+      <c r="A141" s="68"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="70"/>
+      <c r="I141" s="68"/>
+      <c r="J141" s="70"/>
+      <c r="K141" s="74"/>
+      <c r="L141" s="68"/>
+      <c r="M141" s="68"/>
+      <c r="N141" s="68"/>
+      <c r="O141" s="68"/>
+      <c r="P141" s="70"/>
+      <c r="Q141" s="69"/>
+      <c r="V141" s="69"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="69"/>
-      <c r="B142" s="69"/>
-      <c r="C142" s="69"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="69"/>
-      <c r="F142" s="69"/>
-      <c r="G142" s="69"/>
-      <c r="H142" s="71"/>
-      <c r="I142" s="69"/>
-      <c r="J142" s="71"/>
-      <c r="K142" s="75"/>
-      <c r="L142" s="69"/>
-      <c r="M142" s="69"/>
-      <c r="N142" s="69"/>
-      <c r="O142" s="69"/>
-      <c r="P142" s="71"/>
-      <c r="Q142" s="70"/>
-      <c r="V142" s="70"/>
+      <c r="A142" s="68"/>
+      <c r="B142" s="68"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="68"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="68"/>
+      <c r="H142" s="70"/>
+      <c r="I142" s="68"/>
+      <c r="J142" s="70"/>
+      <c r="K142" s="74"/>
+      <c r="L142" s="68"/>
+      <c r="M142" s="68"/>
+      <c r="N142" s="68"/>
+      <c r="O142" s="68"/>
+      <c r="P142" s="70"/>
+      <c r="Q142" s="69"/>
+      <c r="V142" s="69"/>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="69"/>
-      <c r="B143" s="69"/>
-      <c r="C143" s="69"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="69"/>
-      <c r="F143" s="69"/>
-      <c r="G143" s="69"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="69"/>
-      <c r="J143" s="71"/>
-      <c r="K143" s="75"/>
-      <c r="L143" s="69"/>
-      <c r="M143" s="69"/>
-      <c r="N143" s="69"/>
-      <c r="O143" s="69"/>
-      <c r="P143" s="71"/>
-      <c r="Q143" s="70"/>
-      <c r="V143" s="70"/>
+      <c r="A143" s="68"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="70"/>
+      <c r="I143" s="68"/>
+      <c r="J143" s="70"/>
+      <c r="K143" s="74"/>
+      <c r="L143" s="68"/>
+      <c r="M143" s="68"/>
+      <c r="N143" s="68"/>
+      <c r="O143" s="68"/>
+      <c r="P143" s="70"/>
+      <c r="Q143" s="69"/>
+      <c r="V143" s="69"/>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="69"/>
-      <c r="B144" s="69"/>
-      <c r="C144" s="69"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="69"/>
-      <c r="F144" s="69"/>
-      <c r="G144" s="69"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="69"/>
-      <c r="J144" s="71"/>
-      <c r="K144" s="75"/>
-      <c r="L144" s="69"/>
-      <c r="M144" s="69"/>
-      <c r="N144" s="69"/>
-      <c r="O144" s="69"/>
-      <c r="P144" s="71"/>
-      <c r="Q144" s="70"/>
-      <c r="V144" s="70"/>
+      <c r="A144" s="68"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="69"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="68"/>
+      <c r="J144" s="70"/>
+      <c r="K144" s="74"/>
+      <c r="L144" s="68"/>
+      <c r="M144" s="68"/>
+      <c r="N144" s="68"/>
+      <c r="O144" s="68"/>
+      <c r="P144" s="70"/>
+      <c r="Q144" s="69"/>
+      <c r="V144" s="69"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="69"/>
-      <c r="B145" s="69"/>
-      <c r="C145" s="69"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="69"/>
-      <c r="F145" s="69"/>
-      <c r="G145" s="69"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="69"/>
-      <c r="J145" s="71"/>
-      <c r="K145" s="75"/>
-      <c r="L145" s="69"/>
-      <c r="M145" s="69"/>
-      <c r="N145" s="69"/>
-      <c r="O145" s="69"/>
-      <c r="P145" s="71"/>
-      <c r="Q145" s="70"/>
-      <c r="V145" s="70"/>
+      <c r="A145" s="68"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="69"/>
+      <c r="E145" s="68"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="70"/>
+      <c r="I145" s="68"/>
+      <c r="J145" s="70"/>
+      <c r="K145" s="74"/>
+      <c r="L145" s="68"/>
+      <c r="M145" s="68"/>
+      <c r="N145" s="68"/>
+      <c r="O145" s="68"/>
+      <c r="P145" s="70"/>
+      <c r="Q145" s="69"/>
+      <c r="V145" s="69"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="69"/>
-      <c r="B146" s="69"/>
-      <c r="C146" s="69"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="69"/>
-      <c r="F146" s="69"/>
-      <c r="G146" s="69"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="69"/>
-      <c r="J146" s="71"/>
-      <c r="K146" s="75"/>
-      <c r="L146" s="69"/>
-      <c r="M146" s="69"/>
-      <c r="N146" s="69"/>
-      <c r="O146" s="69"/>
-      <c r="P146" s="71"/>
-      <c r="Q146" s="70"/>
-      <c r="V146" s="70"/>
+      <c r="A146" s="68"/>
+      <c r="B146" s="68"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="68"/>
+      <c r="F146" s="68"/>
+      <c r="G146" s="68"/>
+      <c r="H146" s="70"/>
+      <c r="I146" s="68"/>
+      <c r="J146" s="70"/>
+      <c r="K146" s="74"/>
+      <c r="L146" s="68"/>
+      <c r="M146" s="68"/>
+      <c r="N146" s="68"/>
+      <c r="O146" s="68"/>
+      <c r="P146" s="70"/>
+      <c r="Q146" s="69"/>
+      <c r="V146" s="69"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="69"/>
-      <c r="B147" s="69"/>
-      <c r="C147" s="69"/>
-      <c r="D147" s="70"/>
-      <c r="E147" s="69"/>
-      <c r="F147" s="69"/>
-      <c r="G147" s="69"/>
-      <c r="H147" s="71"/>
-      <c r="I147" s="69"/>
-      <c r="J147" s="71"/>
-      <c r="K147" s="75"/>
-      <c r="L147" s="69"/>
-      <c r="M147" s="69"/>
-      <c r="N147" s="69"/>
-      <c r="O147" s="69"/>
-      <c r="P147" s="71"/>
-      <c r="Q147" s="70"/>
-      <c r="V147" s="70"/>
+      <c r="A147" s="68"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="68"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="68"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="68"/>
+      <c r="J147" s="70"/>
+      <c r="K147" s="74"/>
+      <c r="L147" s="68"/>
+      <c r="M147" s="68"/>
+      <c r="N147" s="68"/>
+      <c r="O147" s="68"/>
+      <c r="P147" s="70"/>
+      <c r="Q147" s="69"/>
+      <c r="V147" s="69"/>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="69"/>
-      <c r="B148" s="69"/>
-      <c r="C148" s="69"/>
-      <c r="D148" s="70"/>
-      <c r="E148" s="69"/>
-      <c r="F148" s="69"/>
-      <c r="G148" s="69"/>
-      <c r="H148" s="71"/>
-      <c r="I148" s="69"/>
-      <c r="J148" s="71"/>
-      <c r="K148" s="75"/>
-      <c r="L148" s="69"/>
-      <c r="M148" s="69"/>
-      <c r="N148" s="69"/>
-      <c r="O148" s="69"/>
-      <c r="P148" s="71"/>
-      <c r="Q148" s="70"/>
-      <c r="V148" s="70"/>
+      <c r="A148" s="68"/>
+      <c r="B148" s="68"/>
+      <c r="C148" s="68"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="68"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="68"/>
+      <c r="H148" s="70"/>
+      <c r="I148" s="68"/>
+      <c r="J148" s="70"/>
+      <c r="K148" s="74"/>
+      <c r="L148" s="68"/>
+      <c r="M148" s="68"/>
+      <c r="N148" s="68"/>
+      <c r="O148" s="68"/>
+      <c r="P148" s="70"/>
+      <c r="Q148" s="69"/>
+      <c r="V148" s="69"/>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="69"/>
-      <c r="B149" s="69"/>
-      <c r="C149" s="69"/>
-      <c r="D149" s="70"/>
-      <c r="E149" s="69"/>
-      <c r="F149" s="69"/>
-      <c r="G149" s="69"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="69"/>
-      <c r="J149" s="71"/>
-      <c r="K149" s="75"/>
-      <c r="L149" s="69"/>
-      <c r="M149" s="69"/>
-      <c r="N149" s="69"/>
-      <c r="O149" s="69"/>
-      <c r="P149" s="71"/>
-      <c r="Q149" s="70"/>
-      <c r="V149" s="70"/>
+      <c r="A149" s="68"/>
+      <c r="B149" s="68"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="69"/>
+      <c r="E149" s="68"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="68"/>
+      <c r="H149" s="70"/>
+      <c r="I149" s="68"/>
+      <c r="J149" s="70"/>
+      <c r="K149" s="74"/>
+      <c r="L149" s="68"/>
+      <c r="M149" s="68"/>
+      <c r="N149" s="68"/>
+      <c r="O149" s="68"/>
+      <c r="P149" s="70"/>
+      <c r="Q149" s="69"/>
+      <c r="V149" s="69"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="69"/>
-      <c r="B150" s="69"/>
-      <c r="C150" s="69"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="69"/>
-      <c r="F150" s="69"/>
-      <c r="G150" s="69"/>
-      <c r="H150" s="71"/>
-      <c r="I150" s="69"/>
-      <c r="J150" s="71"/>
-      <c r="K150" s="75"/>
-      <c r="L150" s="69"/>
-      <c r="M150" s="69"/>
-      <c r="N150" s="69"/>
-      <c r="O150" s="69"/>
-      <c r="P150" s="71"/>
-      <c r="Q150" s="70"/>
-      <c r="V150" s="70"/>
+      <c r="A150" s="68"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="68"/>
+      <c r="D150" s="69"/>
+      <c r="E150" s="68"/>
+      <c r="F150" s="68"/>
+      <c r="G150" s="68"/>
+      <c r="H150" s="70"/>
+      <c r="I150" s="68"/>
+      <c r="J150" s="70"/>
+      <c r="K150" s="74"/>
+      <c r="L150" s="68"/>
+      <c r="M150" s="68"/>
+      <c r="N150" s="68"/>
+      <c r="O150" s="68"/>
+      <c r="P150" s="70"/>
+      <c r="Q150" s="69"/>
+      <c r="V150" s="69"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="69"/>
-      <c r="B151" s="69"/>
-      <c r="C151" s="69"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="69"/>
-      <c r="F151" s="69"/>
-      <c r="G151" s="69"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="69"/>
-      <c r="J151" s="71"/>
-      <c r="K151" s="75"/>
-      <c r="L151" s="69"/>
-      <c r="M151" s="69"/>
-      <c r="N151" s="69"/>
-      <c r="O151" s="69"/>
-      <c r="P151" s="71"/>
-      <c r="Q151" s="70"/>
-      <c r="V151" s="70"/>
+      <c r="A151" s="68"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="68"/>
+      <c r="D151" s="69"/>
+      <c r="E151" s="68"/>
+      <c r="F151" s="68"/>
+      <c r="G151" s="68"/>
+      <c r="H151" s="70"/>
+      <c r="I151" s="68"/>
+      <c r="J151" s="70"/>
+      <c r="K151" s="74"/>
+      <c r="L151" s="68"/>
+      <c r="M151" s="68"/>
+      <c r="N151" s="68"/>
+      <c r="O151" s="68"/>
+      <c r="P151" s="70"/>
+      <c r="Q151" s="69"/>
+      <c r="V151" s="69"/>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="69"/>
-      <c r="B152" s="69"/>
-      <c r="C152" s="69"/>
-      <c r="D152" s="70"/>
-      <c r="E152" s="69"/>
-      <c r="F152" s="69"/>
-      <c r="G152" s="69"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="69"/>
-      <c r="J152" s="71"/>
-      <c r="K152" s="75"/>
-      <c r="L152" s="69"/>
-      <c r="M152" s="69"/>
-      <c r="N152" s="69"/>
-      <c r="O152" s="69"/>
-      <c r="P152" s="71"/>
-      <c r="Q152" s="70"/>
-      <c r="V152" s="70"/>
+      <c r="A152" s="68"/>
+      <c r="B152" s="68"/>
+      <c r="C152" s="68"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="68"/>
+      <c r="F152" s="68"/>
+      <c r="G152" s="68"/>
+      <c r="H152" s="70"/>
+      <c r="I152" s="68"/>
+      <c r="J152" s="70"/>
+      <c r="K152" s="74"/>
+      <c r="L152" s="68"/>
+      <c r="M152" s="68"/>
+      <c r="N152" s="68"/>
+      <c r="O152" s="68"/>
+      <c r="P152" s="70"/>
+      <c r="Q152" s="69"/>
+      <c r="V152" s="69"/>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="69"/>
-      <c r="B153" s="69"/>
-      <c r="C153" s="69"/>
-      <c r="D153" s="70"/>
-      <c r="E153" s="69"/>
-      <c r="F153" s="69"/>
-      <c r="G153" s="69"/>
-      <c r="H153" s="71"/>
-      <c r="I153" s="69"/>
-      <c r="J153" s="71"/>
-      <c r="K153" s="75"/>
-      <c r="L153" s="69"/>
-      <c r="M153" s="69"/>
-      <c r="N153" s="69"/>
-      <c r="O153" s="69"/>
-      <c r="P153" s="71"/>
-      <c r="Q153" s="70"/>
-      <c r="V153" s="70"/>
+      <c r="A153" s="68"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="69"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="70"/>
+      <c r="I153" s="68"/>
+      <c r="J153" s="70"/>
+      <c r="K153" s="74"/>
+      <c r="L153" s="68"/>
+      <c r="M153" s="68"/>
+      <c r="N153" s="68"/>
+      <c r="O153" s="68"/>
+      <c r="P153" s="70"/>
+      <c r="Q153" s="69"/>
+      <c r="V153" s="69"/>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="69"/>
-      <c r="B154" s="69"/>
-      <c r="C154" s="69"/>
-      <c r="D154" s="70"/>
-      <c r="E154" s="69"/>
-      <c r="F154" s="69"/>
-      <c r="G154" s="69"/>
-      <c r="H154" s="71"/>
-      <c r="I154" s="69"/>
-      <c r="J154" s="71"/>
-      <c r="K154" s="75"/>
-      <c r="L154" s="69"/>
-      <c r="M154" s="69"/>
-      <c r="N154" s="69"/>
-      <c r="O154" s="69"/>
-      <c r="P154" s="71"/>
-      <c r="Q154" s="70"/>
-      <c r="V154" s="70"/>
+      <c r="A154" s="68"/>
+      <c r="B154" s="68"/>
+      <c r="C154" s="68"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="68"/>
+      <c r="F154" s="68"/>
+      <c r="G154" s="68"/>
+      <c r="H154" s="70"/>
+      <c r="I154" s="68"/>
+      <c r="J154" s="70"/>
+      <c r="K154" s="74"/>
+      <c r="L154" s="68"/>
+      <c r="M154" s="68"/>
+      <c r="N154" s="68"/>
+      <c r="O154" s="68"/>
+      <c r="P154" s="70"/>
+      <c r="Q154" s="69"/>
+      <c r="V154" s="69"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="69"/>
-      <c r="B155" s="69"/>
-      <c r="C155" s="69"/>
-      <c r="D155" s="70"/>
-      <c r="E155" s="69"/>
-      <c r="F155" s="69"/>
-      <c r="G155" s="69"/>
-      <c r="H155" s="71"/>
-      <c r="I155" s="69"/>
-      <c r="J155" s="71"/>
-      <c r="K155" s="75"/>
-      <c r="L155" s="69"/>
-      <c r="M155" s="69"/>
-      <c r="N155" s="69"/>
-      <c r="O155" s="69"/>
-      <c r="P155" s="71"/>
-      <c r="Q155" s="70"/>
-      <c r="V155" s="70"/>
+      <c r="A155" s="68"/>
+      <c r="B155" s="68"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="69"/>
+      <c r="E155" s="68"/>
+      <c r="F155" s="68"/>
+      <c r="G155" s="68"/>
+      <c r="H155" s="70"/>
+      <c r="I155" s="68"/>
+      <c r="J155" s="70"/>
+      <c r="K155" s="74"/>
+      <c r="L155" s="68"/>
+      <c r="M155" s="68"/>
+      <c r="N155" s="68"/>
+      <c r="O155" s="68"/>
+      <c r="P155" s="70"/>
+      <c r="Q155" s="69"/>
+      <c r="V155" s="69"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="69"/>
-      <c r="B156" s="69"/>
-      <c r="C156" s="69"/>
-      <c r="D156" s="70"/>
-      <c r="E156" s="69"/>
-      <c r="F156" s="69"/>
-      <c r="G156" s="69"/>
-      <c r="H156" s="71"/>
-      <c r="I156" s="69"/>
-      <c r="J156" s="71"/>
-      <c r="K156" s="75"/>
-      <c r="L156" s="69"/>
-      <c r="M156" s="69"/>
-      <c r="N156" s="69"/>
-      <c r="O156" s="69"/>
-      <c r="P156" s="71"/>
-      <c r="Q156" s="70"/>
-      <c r="V156" s="70"/>
+      <c r="A156" s="68"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="68"/>
+      <c r="D156" s="69"/>
+      <c r="E156" s="68"/>
+      <c r="F156" s="68"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="70"/>
+      <c r="I156" s="68"/>
+      <c r="J156" s="70"/>
+      <c r="K156" s="74"/>
+      <c r="L156" s="68"/>
+      <c r="M156" s="68"/>
+      <c r="N156" s="68"/>
+      <c r="O156" s="68"/>
+      <c r="P156" s="70"/>
+      <c r="Q156" s="69"/>
+      <c r="V156" s="69"/>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="69"/>
-      <c r="B157" s="69"/>
-      <c r="C157" s="69"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="69"/>
-      <c r="F157" s="69"/>
-      <c r="G157" s="69"/>
-      <c r="H157" s="71"/>
-      <c r="I157" s="69"/>
-      <c r="J157" s="71"/>
-      <c r="K157" s="75"/>
-      <c r="L157" s="69"/>
-      <c r="M157" s="69"/>
-      <c r="N157" s="69"/>
-      <c r="O157" s="69"/>
-      <c r="P157" s="71"/>
-      <c r="Q157" s="70"/>
-      <c r="V157" s="70"/>
+      <c r="A157" s="68"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="68"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="70"/>
+      <c r="I157" s="68"/>
+      <c r="J157" s="70"/>
+      <c r="K157" s="74"/>
+      <c r="L157" s="68"/>
+      <c r="M157" s="68"/>
+      <c r="N157" s="68"/>
+      <c r="O157" s="68"/>
+      <c r="P157" s="70"/>
+      <c r="Q157" s="69"/>
+      <c r="V157" s="69"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="69"/>
-      <c r="B158" s="69"/>
-      <c r="C158" s="69"/>
-      <c r="D158" s="70"/>
-      <c r="E158" s="69"/>
-      <c r="F158" s="69"/>
-      <c r="G158" s="69"/>
-      <c r="H158" s="71"/>
-      <c r="I158" s="69"/>
-      <c r="J158" s="71"/>
-      <c r="K158" s="75"/>
-      <c r="L158" s="69"/>
-      <c r="M158" s="69"/>
-      <c r="N158" s="69"/>
-      <c r="O158" s="69"/>
-      <c r="P158" s="71"/>
-      <c r="Q158" s="70"/>
-      <c r="V158" s="70"/>
+      <c r="A158" s="68"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="68"/>
+      <c r="D158" s="69"/>
+      <c r="E158" s="68"/>
+      <c r="F158" s="68"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="70"/>
+      <c r="I158" s="68"/>
+      <c r="J158" s="70"/>
+      <c r="K158" s="74"/>
+      <c r="L158" s="68"/>
+      <c r="M158" s="68"/>
+      <c r="N158" s="68"/>
+      <c r="O158" s="68"/>
+      <c r="P158" s="70"/>
+      <c r="Q158" s="69"/>
+      <c r="V158" s="69"/>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="69"/>
-      <c r="B159" s="69"/>
-      <c r="C159" s="69"/>
-      <c r="D159" s="70"/>
-      <c r="E159" s="69"/>
-      <c r="F159" s="69"/>
-      <c r="G159" s="69"/>
-      <c r="H159" s="71"/>
-      <c r="I159" s="69"/>
-      <c r="J159" s="71"/>
-      <c r="K159" s="75"/>
-      <c r="L159" s="69"/>
-      <c r="M159" s="69"/>
-      <c r="N159" s="69"/>
-      <c r="O159" s="69"/>
-      <c r="P159" s="71"/>
-      <c r="Q159" s="70"/>
-      <c r="V159" s="70"/>
+      <c r="A159" s="68"/>
+      <c r="B159" s="68"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="70"/>
+      <c r="I159" s="68"/>
+      <c r="J159" s="70"/>
+      <c r="K159" s="74"/>
+      <c r="L159" s="68"/>
+      <c r="M159" s="68"/>
+      <c r="N159" s="68"/>
+      <c r="O159" s="68"/>
+      <c r="P159" s="70"/>
+      <c r="Q159" s="69"/>
+      <c r="V159" s="69"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="69"/>
-      <c r="B160" s="69"/>
-      <c r="C160" s="69"/>
-      <c r="D160" s="70"/>
-      <c r="E160" s="69"/>
-      <c r="F160" s="69"/>
-      <c r="G160" s="69"/>
-      <c r="H160" s="71"/>
-      <c r="I160" s="69"/>
-      <c r="J160" s="71"/>
-      <c r="K160" s="75"/>
-      <c r="L160" s="69"/>
-      <c r="M160" s="69"/>
-      <c r="N160" s="69"/>
-      <c r="O160" s="69"/>
-      <c r="P160" s="71"/>
-      <c r="Q160" s="70"/>
-      <c r="V160" s="70"/>
+      <c r="A160" s="68"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="70"/>
+      <c r="I160" s="68"/>
+      <c r="J160" s="70"/>
+      <c r="K160" s="74"/>
+      <c r="L160" s="68"/>
+      <c r="M160" s="68"/>
+      <c r="N160" s="68"/>
+      <c r="O160" s="68"/>
+      <c r="P160" s="70"/>
+      <c r="Q160" s="69"/>
+      <c r="V160" s="69"/>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="69"/>
-      <c r="B161" s="69"/>
-      <c r="C161" s="69"/>
-      <c r="D161" s="70"/>
-      <c r="E161" s="69"/>
-      <c r="F161" s="69"/>
-      <c r="G161" s="69"/>
-      <c r="H161" s="71"/>
-      <c r="I161" s="69"/>
-      <c r="J161" s="71"/>
-      <c r="K161" s="75"/>
-      <c r="L161" s="69"/>
-      <c r="M161" s="69"/>
-      <c r="N161" s="69"/>
-      <c r="O161" s="69"/>
-      <c r="P161" s="71"/>
-      <c r="Q161" s="70"/>
-      <c r="V161" s="70"/>
+      <c r="A161" s="68"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="68"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="68"/>
+      <c r="F161" s="68"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="70"/>
+      <c r="I161" s="68"/>
+      <c r="J161" s="70"/>
+      <c r="K161" s="74"/>
+      <c r="L161" s="68"/>
+      <c r="M161" s="68"/>
+      <c r="N161" s="68"/>
+      <c r="O161" s="68"/>
+      <c r="P161" s="70"/>
+      <c r="Q161" s="69"/>
+      <c r="V161" s="69"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="69"/>
-      <c r="B162" s="69"/>
-      <c r="C162" s="69"/>
-      <c r="D162" s="70"/>
-      <c r="E162" s="69"/>
-      <c r="F162" s="69"/>
-      <c r="G162" s="69"/>
-      <c r="H162" s="71"/>
-      <c r="I162" s="69"/>
-      <c r="J162" s="71"/>
-      <c r="K162" s="75"/>
-      <c r="L162" s="69"/>
-      <c r="M162" s="69"/>
-      <c r="N162" s="69"/>
-      <c r="O162" s="69"/>
-      <c r="P162" s="71"/>
-      <c r="Q162" s="70"/>
-      <c r="V162" s="70"/>
+      <c r="A162" s="68"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="68"/>
+      <c r="D162" s="69"/>
+      <c r="E162" s="68"/>
+      <c r="F162" s="68"/>
+      <c r="G162" s="68"/>
+      <c r="H162" s="70"/>
+      <c r="I162" s="68"/>
+      <c r="J162" s="70"/>
+      <c r="K162" s="74"/>
+      <c r="L162" s="68"/>
+      <c r="M162" s="68"/>
+      <c r="N162" s="68"/>
+      <c r="O162" s="68"/>
+      <c r="P162" s="70"/>
+      <c r="Q162" s="69"/>
+      <c r="V162" s="69"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="69"/>
-      <c r="B163" s="69"/>
-      <c r="C163" s="69"/>
-      <c r="D163" s="70"/>
-      <c r="E163" s="69"/>
-      <c r="F163" s="69"/>
-      <c r="G163" s="69"/>
-      <c r="H163" s="71"/>
-      <c r="I163" s="69"/>
-      <c r="J163" s="71"/>
-      <c r="K163" s="75"/>
-      <c r="L163" s="69"/>
-      <c r="M163" s="69"/>
-      <c r="N163" s="69"/>
-      <c r="O163" s="69"/>
-      <c r="P163" s="71"/>
-      <c r="Q163" s="70"/>
-      <c r="V163" s="70"/>
+      <c r="A163" s="68"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="68"/>
+      <c r="D163" s="69"/>
+      <c r="E163" s="68"/>
+      <c r="F163" s="68"/>
+      <c r="G163" s="68"/>
+      <c r="H163" s="70"/>
+      <c r="I163" s="68"/>
+      <c r="J163" s="70"/>
+      <c r="K163" s="74"/>
+      <c r="L163" s="68"/>
+      <c r="M163" s="68"/>
+      <c r="N163" s="68"/>
+      <c r="O163" s="68"/>
+      <c r="P163" s="70"/>
+      <c r="Q163" s="69"/>
+      <c r="V163" s="69"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="69"/>
-      <c r="B164" s="69"/>
-      <c r="C164" s="69"/>
-      <c r="D164" s="70"/>
-      <c r="E164" s="69"/>
-      <c r="F164" s="69"/>
-      <c r="G164" s="69"/>
-      <c r="H164" s="71"/>
-      <c r="I164" s="69"/>
-      <c r="J164" s="71"/>
-      <c r="K164" s="75"/>
-      <c r="L164" s="69"/>
-      <c r="M164" s="69"/>
-      <c r="N164" s="69"/>
-      <c r="O164" s="69"/>
-      <c r="P164" s="71"/>
-      <c r="Q164" s="70"/>
-      <c r="V164" s="70"/>
+      <c r="A164" s="68"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="68"/>
+      <c r="D164" s="69"/>
+      <c r="E164" s="68"/>
+      <c r="F164" s="68"/>
+      <c r="G164" s="68"/>
+      <c r="H164" s="70"/>
+      <c r="I164" s="68"/>
+      <c r="J164" s="70"/>
+      <c r="K164" s="74"/>
+      <c r="L164" s="68"/>
+      <c r="M164" s="68"/>
+      <c r="N164" s="68"/>
+      <c r="O164" s="68"/>
+      <c r="P164" s="70"/>
+      <c r="Q164" s="69"/>
+      <c r="V164" s="69"/>
     </row>
   </sheetData>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 O2:O15 O16:O1048576">
+      <formula1>"通过,不通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 Q2:Q15 Q16:Q1048576 R20:R1048576">
+      <formula1>"能,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 U1:U2 U6:U7 U10:U14 U16:U1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"重要,不重要"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"紧急,不紧急"</formula1>
@@ -6207,14 +6326,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 U1:U2 U6:U7 U10:U14 U16:U1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
-      <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576 R20:R1048576">
-      <formula1>"能,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -6243,7 +6356,7 @@
   <sheetPr/>
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -6271,196 +6384,196 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:18">
       <c r="A1" s="43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G1" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>57</v>
-      </c>
       <c r="O1" s="44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="44" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R1" s="44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:18">
-      <c r="A2" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>73</v>
+      <c r="A2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="23"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="45" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="45" t="s">
+      <c r="H2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="48"/>
+      <c r="O2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:18">
+      <c r="A3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="B3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="45" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="45" t="s">
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="19" t="s">
+      <c r="I3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="1:18">
-      <c r="A3" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="45" t="s">
+      <c r="J3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="48"/>
+      <c r="O3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:18">
+      <c r="A4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="45" t="s">
+      <c r="H4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="48"/>
+      <c r="L4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="48"/>
+      <c r="O4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:18">
-      <c r="A4" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="45" t="s">
-        <v>88</v>
+      <c r="R4" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -6490,9 +6603,9 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:11">
+    <row r="1" ht="18.75" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -6505,42 +6618,42 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" ht="17.25" spans="1:11">
+    <row r="2" ht="14.25" spans="1:11">
       <c r="A2" s="28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:11">
+    <row r="3" ht="14.25" spans="1:11">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -6553,7 +6666,7 @@
       <c r="J3" s="40"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" ht="17.25" spans="1:11">
+    <row r="4" ht="14.25" spans="1:11">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="C4" s="31"/>
@@ -6566,7 +6679,7 @@
       <c r="J4" s="40"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" ht="17.25" spans="1:11">
+    <row r="5" ht="14.25" spans="1:11">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -6579,7 +6692,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" ht="17.25" spans="1:11">
+    <row r="6" ht="14.25" spans="1:11">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="31"/>
@@ -6592,7 +6705,7 @@
       <c r="J6" s="40"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" ht="17.25" spans="1:11">
+    <row r="7" ht="14.25" spans="1:11">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="31"/>
@@ -6605,7 +6718,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" ht="17.25" spans="1:11">
+    <row r="8" ht="14.25" spans="1:11">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="31"/>
@@ -6618,7 +6731,7 @@
       <c r="J8" s="40"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" ht="17.25" spans="1:11">
+    <row r="9" ht="14.25" spans="1:11">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="31"/>
@@ -6631,7 +6744,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" ht="17.25" spans="1:11">
+    <row r="10" ht="14.25" spans="1:11">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="31"/>
@@ -6644,7 +6757,7 @@
       <c r="J10" s="40"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" ht="16.5" spans="1:11">
+    <row r="11" spans="1:11">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="31"/>
@@ -6696,7 +6809,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -6728,40 +6841,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>21</v>
@@ -6967,17 +7080,17 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7011,7 +7124,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -7043,40 +7156,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>21</v>
@@ -7282,17 +7395,17 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I8 JE4:JE6 TA4:TA6 ACW4:ACW6 AMS4:AMS6 AWO4:AWO6 BGK4:BGK6 BQG4:BQG6 CAC4:CAC6 CJY4:CJY6 CTU4:CTU6 DDQ4:DDQ6 DNM4:DNM6 DXI4:DXI6 EHE4:EHE6 ERA4:ERA6 FAW4:FAW6 FKS4:FKS6 FUO4:FUO6 GEK4:GEK6 GOG4:GOG6 GYC4:GYC6 HHY4:HHY6 HRU4:HRU6 IBQ4:IBQ6 ILM4:ILM6 IVI4:IVI6 JFE4:JFE6 JPA4:JPA6 JYW4:JYW6 KIS4:KIS6 KSO4:KSO6 LCK4:LCK6 LMG4:LMG6 LWC4:LWC6 MFY4:MFY6 MPU4:MPU6 MZQ4:MZQ6 NJM4:NJM6 NTI4:NTI6 ODE4:ODE6 ONA4:ONA6 OWW4:OWW6 PGS4:PGS6 PQO4:PQO6 QAK4:QAK6 QKG4:QKG6 QUC4:QUC6 RDY4:RDY6 RNU4:RNU6 RXQ4:RXQ6 SHM4:SHM6 SRI4:SRI6 TBE4:TBE6 TLA4:TLA6 TUW4:TUW6 UES4:UES6 UOO4:UOO6 UYK4:UYK6 VIG4:VIG6 VSC4:VSC6 WBY4:WBY6 WLU4:WLU6 WVQ4:WVQ6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 JB4:JB6 SX4:SX6 ACT4:ACT6 AMP4:AMP6 AWL4:AWL6 BGH4:BGH6 BQD4:BQD6 BZZ4:BZZ6 CJV4:CJV6 CTR4:CTR6 DDN4:DDN6 DNJ4:DNJ6 DXF4:DXF6 EHB4:EHB6 EQX4:EQX6 FAT4:FAT6 FKP4:FKP6 FUL4:FUL6 GEH4:GEH6 GOD4:GOD6 GXZ4:GXZ6 HHV4:HHV6 HRR4:HRR6 IBN4:IBN6 ILJ4:ILJ6 IVF4:IVF6 JFB4:JFB6 JOX4:JOX6 JYT4:JYT6 KIP4:KIP6 KSL4:KSL6 LCH4:LCH6 LMD4:LMD6 LVZ4:LVZ6 MFV4:MFV6 MPR4:MPR6 MZN4:MZN6 NJJ4:NJJ6 NTF4:NTF6 ODB4:ODB6 OMX4:OMX6 OWT4:OWT6 PGP4:PGP6 PQL4:PQL6 QAH4:QAH6 QKD4:QKD6 QTZ4:QTZ6 RDV4:RDV6 RNR4:RNR6 RXN4:RXN6 SHJ4:SHJ6 SRF4:SRF6 TBB4:TBB6 TKX4:TKX6 TUT4:TUT6 UEP4:UEP6 UOL4:UOL6 UYH4:UYH6 VID4:VID6 VRZ4:VRZ6 WBV4:WBV6 WLR4:WLR6 WVN4:WVN6">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7326,7 +7439,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -7358,40 +7471,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>21</v>
@@ -7597,17 +7710,17 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I8 JE4:JE6 TA4:TA6 ACW4:ACW6 AMS4:AMS6 AWO4:AWO6 BGK4:BGK6 BQG4:BQG6 CAC4:CAC6 CJY4:CJY6 CTU4:CTU6 DDQ4:DDQ6 DNM4:DNM6 DXI4:DXI6 EHE4:EHE6 ERA4:ERA6 FAW4:FAW6 FKS4:FKS6 FUO4:FUO6 GEK4:GEK6 GOG4:GOG6 GYC4:GYC6 HHY4:HHY6 HRU4:HRU6 IBQ4:IBQ6 ILM4:ILM6 IVI4:IVI6 JFE4:JFE6 JPA4:JPA6 JYW4:JYW6 KIS4:KIS6 KSO4:KSO6 LCK4:LCK6 LMG4:LMG6 LWC4:LWC6 MFY4:MFY6 MPU4:MPU6 MZQ4:MZQ6 NJM4:NJM6 NTI4:NTI6 ODE4:ODE6 ONA4:ONA6 OWW4:OWW6 PGS4:PGS6 PQO4:PQO6 QAK4:QAK6 QKG4:QKG6 QUC4:QUC6 RDY4:RDY6 RNU4:RNU6 RXQ4:RXQ6 SHM4:SHM6 SRI4:SRI6 TBE4:TBE6 TLA4:TLA6 TUW4:TUW6 UES4:UES6 UOO4:UOO6 UYK4:UYK6 VIG4:VIG6 VSC4:VSC6 WBY4:WBY6 WLU4:WLU6 WVQ4:WVQ6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 JB4:JB6 SX4:SX6 ACT4:ACT6 AMP4:AMP6 AWL4:AWL6 BGH4:BGH6 BQD4:BQD6 BZZ4:BZZ6 CJV4:CJV6 CTR4:CTR6 DDN4:DDN6 DNJ4:DNJ6 DXF4:DXF6 EHB4:EHB6 EQX4:EQX6 FAT4:FAT6 FKP4:FKP6 FUL4:FUL6 GEH4:GEH6 GOD4:GOD6 GXZ4:GXZ6 HHV4:HHV6 HRR4:HRR6 IBN4:IBN6 ILJ4:ILJ6 IVF4:IVF6 JFB4:JFB6 JOX4:JOX6 JYT4:JYT6 KIP4:KIP6 KSL4:KSL6 LCH4:LCH6 LMD4:LMD6 LVZ4:LVZ6 MFV4:MFV6 MPR4:MPR6 MZN4:MZN6 NJJ4:NJJ6 NTF4:NTF6 ODB4:ODB6 OMX4:OMX6 OWT4:OWT6 PGP4:PGP6 PQL4:PQL6 QAH4:QAH6 QKD4:QKD6 QTZ4:QTZ6 RDV4:RDV6 RNR4:RNR6 RXN4:RXN6 SHJ4:SHJ6 SRF4:SRF6 TBB4:TBB6 TKX4:TKX6 TUT4:TUT6 UEP4:UEP6 UOL4:UOL6 UYH4:UYH6 VID4:VID6 VRZ4:VRZ6 WBV4:WBV6 WLR4:WLR6 WVN4:WVN6">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7643,7 +7756,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -7675,40 +7788,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>21</v>
@@ -7914,17 +8027,17 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I8 JE4:JE6 TA4:TA6 ACW4:ACW6 AMS4:AMS6 AWO4:AWO6 BGK4:BGK6 BQG4:BQG6 CAC4:CAC6 CJY4:CJY6 CTU4:CTU6 DDQ4:DDQ6 DNM4:DNM6 DXI4:DXI6 EHE4:EHE6 ERA4:ERA6 FAW4:FAW6 FKS4:FKS6 FUO4:FUO6 GEK4:GEK6 GOG4:GOG6 GYC4:GYC6 HHY4:HHY6 HRU4:HRU6 IBQ4:IBQ6 ILM4:ILM6 IVI4:IVI6 JFE4:JFE6 JPA4:JPA6 JYW4:JYW6 KIS4:KIS6 KSO4:KSO6 LCK4:LCK6 LMG4:LMG6 LWC4:LWC6 MFY4:MFY6 MPU4:MPU6 MZQ4:MZQ6 NJM4:NJM6 NTI4:NTI6 ODE4:ODE6 ONA4:ONA6 OWW4:OWW6 PGS4:PGS6 PQO4:PQO6 QAK4:QAK6 QKG4:QKG6 QUC4:QUC6 RDY4:RDY6 RNU4:RNU6 RXQ4:RXQ6 SHM4:SHM6 SRI4:SRI6 TBE4:TBE6 TLA4:TLA6 TUW4:TUW6 UES4:UES6 UOO4:UOO6 UYK4:UYK6 VIG4:VIG6 VSC4:VSC6 WBY4:WBY6 WLU4:WLU6 WVQ4:WVQ6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 JB4:JB6 SX4:SX6 ACT4:ACT6 AMP4:AMP6 AWL4:AWL6 BGH4:BGH6 BQD4:BQD6 BZZ4:BZZ6 CJV4:CJV6 CTR4:CTR6 DDN4:DDN6 DNJ4:DNJ6 DXF4:DXF6 EHB4:EHB6 EQX4:EQX6 FAT4:FAT6 FKP4:FKP6 FUL4:FUL6 GEH4:GEH6 GOD4:GOD6 GXZ4:GXZ6 HHV4:HHV6 HRR4:HRR6 IBN4:IBN6 ILJ4:ILJ6 IVF4:IVF6 JFB4:JFB6 JOX4:JOX6 JYT4:JYT6 KIP4:KIP6 KSL4:KSL6 LCH4:LCH6 LMD4:LMD6 LVZ4:LVZ6 MFV4:MFV6 MPR4:MPR6 MZN4:MZN6 NJJ4:NJJ6 NTF4:NTF6 ODB4:ODB6 OMX4:OMX6 OWT4:OWT6 PGP4:PGP6 PQL4:PQL6 QAH4:QAH6 QKD4:QKD6 QTZ4:QTZ6 RDV4:RDV6 RNR4:RNR6 RXN4:RXN6 SHJ4:SHJ6 SRF4:SRF6 TBB4:TBB6 TKX4:TKX6 TUT4:TUT6 UEP4:UEP6 UOL4:UOL6 UYH4:UYH6 VID4:VID6 VRZ4:VRZ6 WBV4:WBV6 WLR4:WLR6 WVN4:WVN6">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7954,28 +8067,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
